--- a/Design-Doc.xlsx
+++ b/Design-Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c230dae8f4a47c0/Projects/kicad/lab-supply/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1331" documentId="8_{1F0AA1B0-86EE-4865-93ED-31820314B3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A4FE835-C0A6-4107-9DAC-84092F519DAF}"/>
+  <xr:revisionPtr revIDLastSave="1892" documentId="8_{1F0AA1B0-86EE-4865-93ED-31820314B3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCB6F209-B479-4150-A28D-5B390CED10F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BF6A5A35-22AF-4E7C-B6B4-D4AEC3968EE5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t>Vin</t>
   </si>
@@ -197,16 +197,25 @@
 (A, 5.5V)</t>
   </si>
   <si>
-    <t>Maximum Switch Current</t>
+    <t>Inductor Ripple</t>
+  </si>
+  <si>
+    <t>% Vout</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>Max Isw:</t>
+  </si>
+  <si>
+    <t>Inductor: Coilcraft XGL6060-472ME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,13 +253,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="48" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -753,11 +761,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Vin=4.5V</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -782,7 +787,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$B$83</c:f>
+              <c:f>Sheet1!$B$88:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -848,7 +853,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$65:$L$83</c:f>
+              <c:f>Sheet1!$M$88:$M$106</c:f>
               <c:numCache>
                 <c:formatCode>##0.0E+0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -856,58 +861,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3757443718228033E-6</c:v>
+                  <c:v>5.8469135802469141E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3131445170660854E-6</c:v>
+                  <c:v>9.1654320987654312E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4530137981118359E-6</c:v>
+                  <c:v>9.7580246913580246E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4673928830791576E-6</c:v>
+                  <c:v>9.9950617283950607E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2621641249092217E-6</c:v>
+                  <c:v>9.8765432098765437E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8431372549019607E-6</c:v>
+                  <c:v>1.0457516339869283E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8724763979665941E-6</c:v>
+                  <c:v>7.8299685306221275E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0745098039215664E-6</c:v>
+                  <c:v>4.0993464052287562E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1484386347131461E-6</c:v>
+                  <c:v>2.8645848462841945E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7647058823529453E-6</c:v>
+                  <c:v>2.2770398481973488E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3529411764705901E-6</c:v>
+                  <c:v>3.0037546933667111E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8823529411764701E-6</c:v>
+                  <c:v>7.0588235294117645E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.764705882352941E-5</c:v>
+                  <c:v>1.7647058823529417E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1176470588235297E-5</c:v>
+                  <c:v>3.0882352941176472E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4705882352941171E-5</c:v>
+                  <c:v>3.8823529411764706E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8235294117647065E-5</c:v>
+                  <c:v>4.4117647058823542E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2352941176470587E-4</c:v>
+                  <c:v>4.9411764705882354E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8235294117647057E-4</c:v>
+                  <c:v>5.4705882352941173E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,11 +927,8 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Vin=5.0V</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -951,7 +953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$B$83</c:f>
+              <c:f>Sheet1!$B$88:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1017,7 +1019,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$65:$M$83</c:f>
+              <c:f>Sheet1!$N$88:$N$106</c:f>
               <c:numCache>
                 <c:formatCode>##0.0E+0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1025,58 +1027,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2649411764705885E-6</c:v>
+                  <c:v>5.9733333333333339E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0960000000000003E-6</c:v>
+                  <c:v>9.6711111111111123E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2663529411764695E-6</c:v>
+                  <c:v>1.0471111111111111E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3774117647058834E-6</c:v>
+                  <c:v>1.0951111111111111E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3529411764705884E-6</c:v>
+                  <c:v>1.111111111111111E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4705882352941166E-6</c:v>
+                  <c:v>1.1294117647058824E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.1543529411764697E-6</c:v>
+                  <c:v>1.0872470588235297E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6409411764705866E-6</c:v>
+                  <c:v>8.8545882352941164E-7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0908235294117651E-6</c:v>
+                  <c:v>8.1210980392156889E-7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5882352941176506E-6</c:v>
+                  <c:v>4.7484705882352891E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1176470588235313E-6</c:v>
+                  <c:v>4.1581176470588217E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2941176470588239E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5882352941176469E-5</c:v>
+                  <c:v>1.3071895424836602E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7058823529411761E-5</c:v>
+                  <c:v>2.9411764705882355E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.823529411764706E-5</c:v>
+                  <c:v>3.9215686274509803E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.9411764705882346E-5</c:v>
+                  <c:v>4.5751633986928105E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1117647058823528E-4</c:v>
+                  <c:v>5.2287581699346416E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6411764705882354E-4</c:v>
+                  <c:v>5.8823529411764709E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,11 +1093,8 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Vin=5.5V</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1120,7 +1119,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$B$83</c:f>
+              <c:f>Sheet1!$B$88:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1186,7 +1185,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$65:$N$83</c:f>
+              <c:f>Sheet1!$O$88:$O$106</c:f>
               <c:numCache>
                 <c:formatCode>##0.0E+0</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1194,58 +1193,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1698590179873604E-6</c:v>
+                  <c:v>6.076767676767677E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8829363150218766E-6</c:v>
+                  <c:v>1.0084848484848485E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0543509965969845E-6</c:v>
+                  <c:v>1.1054545454545454E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2117647058823514E-6</c:v>
+                  <c:v>1.1733333333333333E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2921730675741359E-6</c:v>
+                  <c:v>1.2121212121212122E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7506076810889655E-6</c:v>
+                  <c:v>1.2121212121212122E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.547107438016527E-6</c:v>
+                  <c:v>1.2729476584022039E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.9186193485658704E-6</c:v>
+                  <c:v>1.1891492464754494E-6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6292659212445308E-6</c:v>
+                  <c:v>1.1505687894992709E-6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1479338842975181E-6</c:v>
+                  <c:v>9.5305785123966948E-7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9251336898395737E-6</c:v>
+                  <c:v>9.1638956409009865E-7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8128342245989298E-6</c:v>
+                  <c:v>6.4819316156214545E-7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4438502673796793E-5</c:v>
+                  <c:v>1.1883541295306004E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3689839572192512E-5</c:v>
+                  <c:v>2.6737967914438508E-6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2941176470588231E-5</c:v>
+                  <c:v>3.5650623885917998E-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2192513368983963E-5</c:v>
+                  <c:v>4.1592394533571012E-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0106951871657755E-4</c:v>
+                  <c:v>4.7534165181224014E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4919786096256684E-4</c:v>
+                  <c:v>5.3475935828876991E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,11 +1675,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Vin=4.5V</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1705,7 +1701,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$88:$B$105</c:f>
+              <c:f>Sheet1!$B$112:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1768,63 +1764,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$88:$P$105</c:f>
+              <c:f>Sheet1!$M$112:$M$129</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.5164650257266028</c:v>
+                  <c:v>0.98293005145320533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.525810040328188</c:v>
+                  <c:v>0.95162008065637604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5274787929356139</c:v>
+                  <c:v>0.95495758587122792</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5281462939785844</c:v>
+                  <c:v>0.95629258795716865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.527812543457099</c:v>
+                  <c:v>0.95562508691419834</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3000312891113892</c:v>
+                  <c:v>0.95006257822277851</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0213752204875981</c:v>
+                  <c:v>0.97959254623835346</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91926291793313064</c:v>
+                  <c:v>0.92781155015197569</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90011133102424545</c:v>
+                  <c:v>0.97670845016218588</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83956760466712421</c:v>
+                  <c:v>0.94573862489402094</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83165459483929383</c:v>
+                  <c:v>0.95721824266148303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78749999999999998</c:v>
+                  <c:v>0.96003267973856221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67220744680851063</c:v>
+                  <c:v>0.93215999165623709</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52809175531914887</c:v>
+                  <c:v>0.93653481782784065</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.44162234042553195</c:v>
+                  <c:v>0.90255840634126006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.38397606382978722</c:v>
+                  <c:v>0.91476585314977066</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.32632978723404255</c:v>
+                  <c:v>0.92697329995828115</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.26868351063829787</c:v>
+                  <c:v>0.9391807467667922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,11 +1835,8 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Vin=5.0V</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1868,7 +1861,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$88:$B$105</c:f>
+              <c:f>Sheet1!$B$112:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1931,63 +1924,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$88:$Q$105</c:f>
+              <c:f>Sheet1!$N$112:$N$129</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.5168210262828536</c:v>
+                  <c:v>0.98364205256570714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5272340425531914</c:v>
+                  <c:v>0.95446808510638304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5294868585732164</c:v>
+                  <c:v>0.95897371714643309</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5308385481852316</c:v>
+                  <c:v>0.96167709637046306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5312891113892366</c:v>
+                  <c:v>0.96257822277847316</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4467042136003339</c:v>
+                  <c:v>0.96007509386733414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.141249588301166</c:v>
+                  <c:v>0.99565707133917392</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0287257881876155</c:v>
+                  <c:v>0.98364205256570703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98960910440376049</c:v>
+                  <c:v>0.99375603224961417</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9231297185998627</c:v>
+                  <c:v>0.94647220315717229</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.914440923494794</c:v>
+                  <c:v>0.95833408782254426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86595744680851061</c:v>
+                  <c:v>0.96989987484355455</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.73936170212765961</c:v>
+                  <c:v>0.97349812265331659</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5811170212765957</c:v>
+                  <c:v>0.93681946182728404</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.48617021276595745</c:v>
+                  <c:v>0.93363579474342917</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4228723404255319</c:v>
+                  <c:v>0.970729036295369</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3595744680851064</c:v>
+                  <c:v>0.84311639549436801</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29627659574468085</c:v>
+                  <c:v>0.85668022528160193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2002,11 +1995,8 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>Vin=5.5V</c:v>
-          </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -2031,7 +2021,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$88:$B$105</c:f>
+              <c:f>Sheet1!$B$112:$B$129</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2094,63 +2084,63 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$88:$R$105</c:f>
+              <c:f>Sheet1!$O$112:$O$129</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>1.5171122994652406</c:v>
+                  <c:v>0.9842245989304812</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5283991352827397</c:v>
+                  <c:v>0.95679827056547961</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5311298213676185</c:v>
+                  <c:v>0.96225964273523723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5330413016270339</c:v>
+                  <c:v>0.96608260325406758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5341335760609853</c:v>
+                  <c:v>0.96826715212197068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5341335760609853</c:v>
+                  <c:v>0.96826715212197068</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2596635447419322</c:v>
+                  <c:v>0.95880077369439076</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1379444814676354</c:v>
+                  <c:v>0.99969848674479456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1106932026555392</c:v>
+                  <c:v>0.99696780065991575</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0233647386701605</c:v>
+                  <c:v>0.99046535442029815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9953033046627433</c:v>
+                  <c:v>0.95609877433832913</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94260638297872346</c:v>
+                  <c:v>0.97501365343042445</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.80500886524822679</c:v>
+                  <c:v>0.94068295596768681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6330119680851064</c:v>
+                  <c:v>0.93520273921947883</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.52981382978723413</c:v>
+                  <c:v>0.95758305836841506</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.46101507092198574</c:v>
+                  <c:v>0.88694177380816919</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.39221631205673757</c:v>
+                  <c:v>0.93394754807145308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.32341755319148935</c:v>
+                  <c:v>0.78843995335077932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,7 +2370,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2553,9 +2543,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" baseline="0"/>
-              <a:t> Ripple Vs Vout</a:t>
+              <a:t> Ripple Vs Vout (Lmin reset for each Vout)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2623,7 +2612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$87:$B$105</c:f>
+              <c:f>Sheet1!$B$88:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2689,7 +2678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$87:$J$105</c:f>
+              <c:f>Sheet1!$J$88:$J$106</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2697,58 +2686,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2930051453205399E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.1620080656376029E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4957585871227926E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6292587957168683E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5625086914198305E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0062578222778487E-2</c:v>
+                  <c:v>0.38249999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9592546238353504E-2</c:v>
+                  <c:v>0.30197368421052634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7097264437689993E-2</c:v>
+                  <c:v>0.27321428571428569</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1152894606630376E-2</c:v>
+                  <c:v>0.26686046511627909</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3973919011667846E-2</c:v>
+                  <c:v>0.24677419354838706</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5649615210502514E-2</c:v>
+                  <c:v>0.24414893617021274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5000000000000026E-2</c:v>
+                  <c:v>0.22949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9414893617021287E-2</c:v>
+                  <c:v>0.19124999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9933510638297876E-2</c:v>
+                  <c:v>0.1434375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11824468085106384</c:v>
+                  <c:v>0.11474999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13045212765957448</c:v>
+                  <c:v>9.5624999999999988E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14265957446808511</c:v>
+                  <c:v>7.6499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.15486702127659577</c:v>
+                  <c:v>5.7374999999999995E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2789,7 +2778,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$87:$B$105</c:f>
+              <c:f>Sheet1!$B$88:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2855,7 +2844,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$87:$K$105</c:f>
+              <c:f>Sheet1!$K$88:$K$106</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2863,58 +2852,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.364205256570714E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4468085106382978E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8973717146433034E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1677096370463078E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.2578222778473094E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0075093867334173E-2</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5657071339173967E-2</c:v>
+                  <c:v>0.33552631578947367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3642052565707126E-2</c:v>
+                  <c:v>0.30357142857142855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.474022761009382E-3</c:v>
+                  <c:v>0.29651162790697672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.8302447952413644E-2</c:v>
+                  <c:v>0.27419354838709675</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0371208691715725E-2</c:v>
+                  <c:v>0.27127659574468083</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1914893617021281E-2</c:v>
+                  <c:v>0.255</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2056737588652468E-2</c:v>
+                  <c:v>0.21249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9734042553191488E-2</c:v>
+                  <c:v>0.15937499999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12234042553191489</c:v>
+                  <c:v>0.1275</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13741134751773046</c:v>
+                  <c:v>0.10625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1524822695035461</c:v>
+                  <c:v>8.4999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16755319148936171</c:v>
+                  <c:v>6.3750000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2955,7 +2944,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$87:$B$105</c:f>
+              <c:f>Sheet1!$B$88:$B$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3021,7 +3010,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$87:$L$105</c:f>
+              <c:f>Sheet1!$L$88:$L$106</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
@@ -3029,58 +3018,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4224598930481291E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6798270565479585E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2259642735237229E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.608260325406759E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8267152121970653E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.826715212197064E-2</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.8800773694390726E-2</c:v>
+                  <c:v>0.36907894736842106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9698486744794622E-2</c:v>
+                  <c:v>0.33392857142857141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.6967800659915813E-2</c:v>
+                  <c:v>0.3261627906976744</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5976789168278518E-2</c:v>
+                  <c:v>0.30161290322580636</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2449071978270793E-3</c:v>
+                  <c:v>0.29840425531914894</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5212765957446823E-2</c:v>
+                  <c:v>0.28050000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1684397163120566E-2</c:v>
+                  <c:v>0.23374999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.727393617021278E-2</c:v>
+                  <c:v>0.17531249999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12462765957446809</c:v>
+                  <c:v>0.14025000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.14286347517730494</c:v>
+                  <c:v>0.11687499999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16109929078014185</c:v>
+                  <c:v>9.3499999999999986E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1793351063829787</c:v>
+                  <c:v>7.0125000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3232,7 +3221,6 @@
         <c:axId val="788147679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8580,7 +8568,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$B$83</c:f>
+              <c:f>Sheet1!$B$66:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8646,7 +8634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$65:$F$83</c:f>
+              <c:f>Sheet1!$F$66:$F$84</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8749,7 +8737,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$B$83</c:f>
+              <c:f>Sheet1!$B$66:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8815,7 +8803,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$65:$G$83</c:f>
+              <c:f>Sheet1!$G$66:$G$84</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8918,7 +8906,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$B$83</c:f>
+              <c:f>Sheet1!$B$66:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -8984,7 +8972,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$65:$H$83</c:f>
+              <c:f>Sheet1!$H$66:$H$84</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="19"/>
@@ -16261,7 +16249,7 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16289,15 +16277,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16325,16 +16313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>376237</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16361,16 +16349,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16697,14 +16685,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC00ADE-A1D9-4EBB-AC38-AEB0D535C5C8}">
-  <dimension ref="A1:BO115"/>
+  <dimension ref="A1:BO132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87:I105"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -20745,12 +20734,12 @@
         <v>0.93023255813953487</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -20761,7 +20750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -20772,18 +20761,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>23</v>
       </c>
-      <c r="B60">
-        <v>500000</v>
+      <c r="B60" s="6">
+        <v>2500000</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -20791,1579 +20780,1521 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>20</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="H65" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="I65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J64" s="6" t="s">
+      <c r="J65" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K64" s="6" t="s">
+      <c r="K65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L64" s="6" t="s">
+      <c r="L65" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M64" s="6" t="s">
+      <c r="M65" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N64" s="6" t="s">
+      <c r="N65" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O64" s="6" t="s">
+      <c r="O65" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P64" s="6" t="s">
+      <c r="P65" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q64" s="6" t="s">
+      <c r="Q65" s="5" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>0</v>
-      </c>
-      <c r="B65">
-        <f>A65</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="3" t="e">
-        <f>$B$59*(4.5/B65)*$B$61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D65" s="3" t="e">
-        <f>$B$59*(5/C65)*$B$61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E65" s="3" t="e">
-        <f>$B$59*(5.5/D65)*$B$61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="1">
-        <f>B65/(4.5*$B$61)</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="1">
-        <f>B65/(5*$B$61)</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="1">
-        <f>B65/(5.5*$B$61)</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="3" t="e">
-        <f>0.2*C65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J65" s="3" t="e">
-        <f>0.2*D65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K65" s="3" t="e">
-        <f>0.2*E65</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L65" s="4" t="e">
-        <f>B65*($B$58-B65)/(I65*$B$60*4.5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M65" s="4" t="e">
-        <f>B65*($B$58-B65)/(J65*$B$60*5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N65" s="4" t="e">
-        <f>B65*($B$58-B65)/(K65*$B$60*5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O65" t="e">
-        <f t="shared" ref="O65" si="52">C65+I65/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P65" t="e">
-        <f t="shared" ref="P65" si="53">D65+J65/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q65" t="e">
-        <f t="shared" ref="Q65" si="54">E65+K65/2</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B83" si="55">A66</f>
-        <v>0.8</v>
-      </c>
-      <c r="C66" s="3">
-        <f>$B$59*(4.5/B66)*$B$61</f>
-        <v>4.78125</v>
-      </c>
-      <c r="D66" s="3">
-        <f>$B$59*(5/B66)*$B$61</f>
-        <v>5.3125</v>
-      </c>
-      <c r="E66" s="3">
-        <f>$B$59*(5.5/B66)*$B$61</f>
-        <v>5.84375</v>
+        <f>A66</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="3" t="e">
+        <f t="shared" ref="C66:C84" si="52">$B$59*(4.5/B66)*$B$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D66" s="3" t="e">
+        <f>$B$59*(5/C66)*$B$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E66" s="3" t="e">
+        <f>$B$59*(5.5/D66)*$B$61</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F66" s="1">
-        <f>B66/(4.5*$B$61)</f>
-        <v>0.20915032679738566</v>
+        <f t="shared" ref="F66:F73" si="53">B66/(4.5*$B$61)</f>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
-        <f>B66/(5*$B$61)</f>
-        <v>0.18823529411764706</v>
+        <f t="shared" ref="G66:G74" si="54">B66/(5*$B$61)</f>
+        <v>0</v>
       </c>
       <c r="H66" s="1">
-        <f>B66/(5.5*$B$61)</f>
-        <v>0.17112299465240643</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" ref="I66:I83" si="56">0.2*C66</f>
-        <v>0.95625000000000004</v>
-      </c>
-      <c r="J66" s="3">
-        <f t="shared" ref="J66:J83" si="57">0.2*D66</f>
-        <v>1.0625</v>
-      </c>
-      <c r="K66" s="3">
-        <f t="shared" ref="K66:K83" si="58">0.2*E66</f>
-        <v>1.16875</v>
-      </c>
-      <c r="L66" s="4">
-        <f>B66*(4.5-B66)/(I66*$B$60*4.5)</f>
-        <v>1.3757443718228033E-6</v>
-      </c>
-      <c r="M66" s="4">
-        <f>B66*(5-B66)/(J66*$B$60*5)</f>
-        <v>1.2649411764705885E-6</v>
-      </c>
-      <c r="N66" s="4">
-        <f>B66*(5.5-B66)/(K66*$B$60*5.5)</f>
-        <v>1.1698590179873604E-6</v>
-      </c>
-      <c r="O66">
-        <f>C66+I66/2</f>
-        <v>5.2593750000000004</v>
-      </c>
-      <c r="P66">
-        <f>D66+J66/2</f>
-        <v>5.84375</v>
-      </c>
-      <c r="Q66">
-        <f>E66+K66/2</f>
-        <v>6.4281249999999996</v>
+        <f t="shared" ref="H66:H76" si="55">B66/(5.5*$B$61)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="3" t="e">
+        <f>0.2*C66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J66" s="3" t="e">
+        <f>0.2*D66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="3" t="e">
+        <f>0.2*E66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L66" s="4" t="e">
+        <f>B66*($B$58-B66)/(I66*$B$60*4.5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M66" s="4" t="e">
+        <f>B66*($B$58-B66)/(J66*$B$60*5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N66" s="4" t="e">
+        <f>B66*($B$58-B66)/(K66*$B$60*5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O66" t="e">
+        <f t="shared" ref="O66" si="56">C66+I66/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P66" t="e">
+        <f t="shared" ref="P66" si="57">D66+J66/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q66" t="e">
+        <f t="shared" ref="Q66" si="58">E66+K66/2</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="B67">
+        <f t="shared" ref="B67:B84" si="59">A67</f>
+        <v>0.8</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="52"/>
+        <v>4.78125</v>
+      </c>
+      <c r="D67" s="3">
+        <f>$B$59*(5/B67)*$B$61</f>
+        <v>5.3125</v>
+      </c>
+      <c r="E67" s="3">
+        <f>$B$59*(5.5/B67)*$B$61</f>
+        <v>5.84375</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="53"/>
+        <v>0.20915032679738566</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="54"/>
+        <v>0.18823529411764706</v>
+      </c>
+      <c r="H67" s="1">
         <f t="shared" si="55"/>
-        <v>1.6</v>
-      </c>
-      <c r="C67" s="3">
-        <f>$B$59*(4.5/B67)*$B$61</f>
-        <v>2.390625</v>
-      </c>
-      <c r="D67" s="3">
-        <f t="shared" ref="D67:D83" si="59">$B$59*(5/B67)*$B$61</f>
-        <v>2.65625</v>
-      </c>
-      <c r="E67" s="3">
-        <f t="shared" ref="E67:E83" si="60">$B$59*(5.5/B67)*$B$61</f>
-        <v>2.921875</v>
-      </c>
-      <c r="F67" s="1">
-        <f>B67/(4.5*$B$61)</f>
-        <v>0.41830065359477131</v>
-      </c>
-      <c r="G67" s="1">
-        <f>B67/(5*$B$61)</f>
-        <v>0.37647058823529411</v>
-      </c>
-      <c r="H67" s="1">
-        <f>B67/(5.5*$B$61)</f>
-        <v>0.34224598930481287</v>
+        <v>0.17112299465240643</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="56"/>
-        <v>0.47812500000000002</v>
+        <f t="shared" ref="I67:I84" si="60">0.2*C67</f>
+        <v>0.95625000000000004</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="57"/>
-        <v>0.53125</v>
+        <f t="shared" ref="J67:J84" si="61">0.2*D67</f>
+        <v>1.0625</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="58"/>
-        <v>0.58437499999999998</v>
+        <f t="shared" ref="K67:K84" si="62">0.2*E67</f>
+        <v>1.16875</v>
       </c>
       <c r="L67" s="4">
-        <f>B67*(4.5-B67)/(I67*$B$60*4.5)</f>
-        <v>4.3131445170660854E-6</v>
+        <f t="shared" ref="L67:L75" si="63">B67*(4.5-B67)/(I67*$B$60*4.5)</f>
+        <v>2.7514887436456067E-7</v>
       </c>
       <c r="M67" s="4">
-        <f>B67*(5-B67)/(J67*$B$60*5)</f>
-        <v>4.0960000000000003E-6</v>
+        <f t="shared" ref="M67:M75" si="64">B67*(5-B67)/(J67*$B$60*5)</f>
+        <v>2.5298823529411768E-7</v>
       </c>
       <c r="N67" s="4">
-        <f>B67*(5.5-B67)/(K67*$B$60*5.5)</f>
-        <v>3.8829363150218766E-6</v>
+        <f t="shared" ref="N67:N76" si="65">B67*(5.5-B67)/(K67*$B$60*5.5)</f>
+        <v>2.3397180359747205E-7</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O83" si="61">C67+I67/2</f>
-        <v>2.6296875000000002</v>
+        <f>C67+I67/2</f>
+        <v>5.2593750000000004</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P83" si="62">D67+J67/2</f>
-        <v>2.921875</v>
+        <f>D67+J67/2</f>
+        <v>5.84375</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q83" si="63">E67+K67/2</f>
-        <v>3.2140624999999998</v>
+        <f>E67+K67/2</f>
+        <v>6.4281249999999996</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="B68">
+        <f t="shared" si="59"/>
+        <v>1.6</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="52"/>
+        <v>2.390625</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" ref="D68:D84" si="66">$B$59*(5/B68)*$B$61</f>
+        <v>2.65625</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" ref="E68:E84" si="67">$B$59*(5.5/B68)*$B$61</f>
+        <v>2.921875</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="53"/>
+        <v>0.41830065359477131</v>
+      </c>
+      <c r="G68" s="1">
+        <f t="shared" si="54"/>
+        <v>0.37647058823529411</v>
+      </c>
+      <c r="H68" s="1">
         <f t="shared" si="55"/>
-        <v>1.9</v>
-      </c>
-      <c r="C68" s="3">
-        <f>$B$59*(4.5/B68)*$B$61</f>
-        <v>2.0131578947368425</v>
-      </c>
-      <c r="D68" s="3">
-        <f t="shared" si="59"/>
-        <v>2.236842105263158</v>
-      </c>
-      <c r="E68" s="3">
+        <v>0.34224598930481287</v>
+      </c>
+      <c r="I68" s="3">
         <f t="shared" si="60"/>
-        <v>2.4605263157894739</v>
-      </c>
-      <c r="F68" s="1">
-        <f>B68/(4.5*$B$61)</f>
-        <v>0.49673202614379086</v>
-      </c>
-      <c r="G68" s="1">
-        <f>B68/(5*$B$61)</f>
-        <v>0.44705882352941173</v>
-      </c>
-      <c r="H68" s="1">
-        <f>B68/(5.5*$B$61)</f>
-        <v>0.40641711229946526</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" si="56"/>
-        <v>0.40263157894736851</v>
+        <v>0.47812500000000002</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="57"/>
-        <v>0.44736842105263164</v>
+        <f t="shared" si="61"/>
+        <v>0.53125</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="58"/>
-        <v>0.49210526315789482</v>
+        <f t="shared" si="62"/>
+        <v>0.58437499999999998</v>
       </c>
       <c r="L68" s="4">
-        <f>B68*(4.5-B68)/(I68*$B$60*4.5)</f>
-        <v>5.4530137981118359E-6</v>
+        <f t="shared" si="63"/>
+        <v>8.6262890341321712E-7</v>
       </c>
       <c r="M68" s="4">
-        <f>B68*(5-B68)/(J68*$B$60*5)</f>
-        <v>5.2663529411764695E-6</v>
+        <f t="shared" si="64"/>
+        <v>8.1920000000000003E-7</v>
       </c>
       <c r="N68" s="4">
-        <f>B68*(5.5-B68)/(K68*$B$60*5.5)</f>
-        <v>5.0543509965969845E-6</v>
+        <f t="shared" si="65"/>
+        <v>7.7658726300437531E-7</v>
       </c>
       <c r="O68">
-        <f t="shared" si="61"/>
-        <v>2.2144736842105268</v>
+        <f t="shared" ref="O68:O84" si="68">C68+I68/2</f>
+        <v>2.6296875000000002</v>
       </c>
       <c r="P68">
-        <f t="shared" si="62"/>
-        <v>2.4605263157894739</v>
+        <f t="shared" ref="P68:P84" si="69">D68+J68/2</f>
+        <v>2.921875</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="63"/>
-        <v>2.7065789473684214</v>
+        <f t="shared" ref="Q68:Q84" si="70">E68+K68/2</f>
+        <v>3.2140624999999998</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="B69">
+        <f t="shared" si="59"/>
+        <v>1.9</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="52"/>
+        <v>2.0131578947368425</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="66"/>
+        <v>2.236842105263158</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="67"/>
+        <v>2.4605263157894739</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="53"/>
+        <v>0.49673202614379086</v>
+      </c>
+      <c r="G69" s="1">
+        <f t="shared" si="54"/>
+        <v>0.44705882352941173</v>
+      </c>
+      <c r="H69" s="1">
         <f t="shared" si="55"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C69" s="3">
-        <f>$B$59*(4.5/B69)*$B$61</f>
-        <v>1.7386363636363635</v>
-      </c>
-      <c r="D69" s="3">
-        <f t="shared" si="59"/>
-        <v>1.9318181818181817</v>
-      </c>
-      <c r="E69" s="3">
+        <v>0.40641711229946526</v>
+      </c>
+      <c r="I69" s="3">
         <f t="shared" si="60"/>
-        <v>2.125</v>
-      </c>
-      <c r="F69" s="1">
-        <f>B69/(4.5*$B$61)</f>
-        <v>0.57516339869281052</v>
-      </c>
-      <c r="G69" s="1">
-        <f>B69/(5*$B$61)</f>
-        <v>0.51764705882352946</v>
-      </c>
-      <c r="H69" s="1">
-        <f>B69/(5.5*$B$61)</f>
-        <v>0.4705882352941177</v>
-      </c>
-      <c r="I69" s="3">
-        <f t="shared" si="56"/>
-        <v>0.34772727272727272</v>
+        <v>0.40263157894736851</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="57"/>
-        <v>0.38636363636363635</v>
+        <f t="shared" si="61"/>
+        <v>0.44736842105263164</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="58"/>
-        <v>0.42500000000000004</v>
+        <f t="shared" si="62"/>
+        <v>0.49210526315789482</v>
       </c>
       <c r="L69" s="4">
-        <f>B69*(4.5-B69)/(I69*$B$60*4.5)</f>
-        <v>6.4673928830791576E-6</v>
+        <f t="shared" si="63"/>
+        <v>1.0906027596223671E-6</v>
       </c>
       <c r="M69" s="4">
-        <f>B69*(5-B69)/(J69*$B$60*5)</f>
-        <v>6.3774117647058834E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.0532705882352939E-6</v>
       </c>
       <c r="N69" s="4">
-        <f>B69*(5.5-B69)/(K69*$B$60*5.5)</f>
-        <v>6.2117647058823514E-6</v>
+        <f t="shared" si="65"/>
+        <v>1.010870199319397E-6</v>
       </c>
       <c r="O69">
-        <f t="shared" si="61"/>
-        <v>1.9124999999999999</v>
+        <f t="shared" si="68"/>
+        <v>2.2144736842105268</v>
       </c>
       <c r="P69">
-        <f t="shared" si="62"/>
-        <v>2.125</v>
+        <f t="shared" si="69"/>
+        <v>2.4605263157894739</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="63"/>
-        <v>2.3374999999999999</v>
+        <f t="shared" si="70"/>
+        <v>2.7065789473684214</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B70">
+        <f t="shared" si="59"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="52"/>
+        <v>1.7386363636363635</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="66"/>
+        <v>1.9318181818181817</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="67"/>
+        <v>2.125</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="53"/>
+        <v>0.57516339869281052</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="54"/>
+        <v>0.51764705882352946</v>
+      </c>
+      <c r="H70" s="1">
         <f t="shared" si="55"/>
-        <v>2.5</v>
-      </c>
-      <c r="C70" s="3">
-        <f>$B$59*(4.5/B70)*$B$61</f>
-        <v>1.53</v>
-      </c>
-      <c r="D70" s="3">
-        <f t="shared" si="59"/>
-        <v>1.7</v>
-      </c>
-      <c r="E70" s="3">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="I70" s="3">
         <f t="shared" si="60"/>
-        <v>1.87</v>
-      </c>
-      <c r="F70" s="1">
-        <f>B70/(4.5*$B$61)</f>
-        <v>0.65359477124183007</v>
-      </c>
-      <c r="G70" s="1">
-        <f>B70/(5*$B$61)</f>
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="H70" s="1">
-        <f>B70/(5.5*$B$61)</f>
-        <v>0.53475935828877008</v>
-      </c>
-      <c r="I70" s="3">
-        <f t="shared" si="56"/>
-        <v>0.30600000000000005</v>
+        <v>0.34772727272727272</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="57"/>
-        <v>0.34</v>
+        <f t="shared" si="61"/>
+        <v>0.38636363636363635</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="58"/>
-        <v>0.37400000000000005</v>
+        <f t="shared" si="62"/>
+        <v>0.42500000000000004</v>
       </c>
       <c r="L70" s="4">
-        <f>B70*(4.5-B70)/(I70*$B$60*4.5)</f>
-        <v>7.2621641249092217E-6</v>
+        <f t="shared" si="63"/>
+        <v>1.2934785766158315E-6</v>
       </c>
       <c r="M70" s="4">
-        <f>B70*(5-B70)/(J70*$B$60*5)</f>
-        <v>7.3529411764705884E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.2754823529411765E-6</v>
       </c>
       <c r="N70" s="4">
-        <f>B70*(5.5-B70)/(K70*$B$60*5.5)</f>
-        <v>7.2921730675741359E-6</v>
+        <f t="shared" si="65"/>
+        <v>1.2423529411764705E-6</v>
       </c>
       <c r="O70">
-        <f t="shared" si="61"/>
-        <v>1.6830000000000001</v>
+        <f t="shared" si="68"/>
+        <v>1.9124999999999999</v>
       </c>
       <c r="P70">
-        <f t="shared" si="62"/>
-        <v>1.8699999999999999</v>
+        <f t="shared" si="69"/>
+        <v>2.125</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="63"/>
-        <v>2.0569999999999999</v>
+        <f t="shared" si="70"/>
+        <v>2.3374999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B71">
+        <f t="shared" si="59"/>
+        <v>2.5</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="52"/>
+        <v>1.53</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="66"/>
+        <v>1.7</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="67"/>
+        <v>1.87</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="53"/>
+        <v>0.65359477124183007</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="54"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="H71" s="1">
         <f t="shared" si="55"/>
-        <v>3</v>
-      </c>
-      <c r="C71" s="3">
-        <f>$B$59*(4.5/B71)*$B$61</f>
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="D71" s="3">
-        <f t="shared" si="59"/>
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="E71" s="3">
+        <v>0.53475935828877008</v>
+      </c>
+      <c r="I71" s="3">
         <f t="shared" si="60"/>
-        <v>1.5583333333333331</v>
-      </c>
-      <c r="F71" s="1">
-        <f>B71/(4.5*$B$61)</f>
-        <v>0.78431372549019618</v>
-      </c>
-      <c r="G71" s="1">
-        <f>B71/(5*$B$61)</f>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="H71" s="1">
-        <f>B71/(5.5*$B$61)</f>
-        <v>0.64171122994652408</v>
-      </c>
-      <c r="I71" s="3">
-        <f t="shared" si="56"/>
-        <v>0.255</v>
+        <v>0.30600000000000005</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="57"/>
-        <v>0.28333333333333338</v>
+        <f t="shared" si="61"/>
+        <v>0.34</v>
       </c>
       <c r="K71" s="3">
-        <f t="shared" si="58"/>
-        <v>0.31166666666666665</v>
+        <f t="shared" si="62"/>
+        <v>0.37400000000000005</v>
       </c>
       <c r="L71" s="4">
-        <f>B71*(4.5-B71)/(I71*$B$60*4.5)</f>
-        <v>7.8431372549019607E-6</v>
+        <f t="shared" si="63"/>
+        <v>1.4524328249818443E-6</v>
       </c>
       <c r="M71" s="4">
-        <f>B71*(5-B71)/(J71*$B$60*5)</f>
-        <v>8.4705882352941166E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.4705882352941173E-6</v>
       </c>
       <c r="N71" s="4">
-        <f>B71*(5.5-B71)/(K71*$B$60*5.5)</f>
-        <v>8.7506076810889655E-6</v>
+        <f t="shared" si="65"/>
+        <v>1.4584346135148272E-6</v>
       </c>
       <c r="O71">
-        <f t="shared" si="61"/>
-        <v>1.4024999999999999</v>
+        <f t="shared" si="68"/>
+        <v>1.6830000000000001</v>
       </c>
       <c r="P71">
-        <f t="shared" si="62"/>
-        <v>1.5583333333333333</v>
+        <f t="shared" si="69"/>
+        <v>1.8699999999999999</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="63"/>
-        <v>1.7141666666666664</v>
+        <f t="shared" si="70"/>
+        <v>2.0569999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="B72">
+        <f t="shared" si="59"/>
+        <v>3</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="52"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="66"/>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="67"/>
+        <v>1.5583333333333331</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="53"/>
+        <v>0.78431372549019618</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="54"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="H72" s="1">
         <f t="shared" si="55"/>
-        <v>3.8</v>
-      </c>
-      <c r="C72" s="3">
-        <f>$B$59*(4.5/B72)*$B$61</f>
-        <v>1.0065789473684212</v>
-      </c>
-      <c r="D72" s="3">
-        <f t="shared" si="59"/>
-        <v>1.118421052631579</v>
-      </c>
-      <c r="E72" s="3">
+        <v>0.64171122994652408</v>
+      </c>
+      <c r="I72" s="3">
         <f t="shared" si="60"/>
-        <v>1.2302631578947369</v>
-      </c>
-      <c r="F72" s="1">
-        <f>B72/(4.5*$B$61)</f>
-        <v>0.99346405228758172</v>
-      </c>
-      <c r="G72" s="1">
-        <f>B72/(5*$B$61)</f>
-        <v>0.89411764705882346</v>
-      </c>
-      <c r="H72" s="1">
-        <f>B72/(5.5*$B$61)</f>
-        <v>0.81283422459893051</v>
-      </c>
-      <c r="I72" s="3">
-        <f t="shared" si="56"/>
-        <v>0.20131578947368425</v>
+        <v>0.255</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="57"/>
-        <v>0.22368421052631582</v>
+        <f t="shared" si="61"/>
+        <v>0.28333333333333338</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="58"/>
-        <v>0.24605263157894741</v>
+        <f t="shared" si="62"/>
+        <v>0.31166666666666665</v>
       </c>
       <c r="L72" s="4">
-        <f>B72*(4.5-B72)/(I72*$B$60*4.5)</f>
-        <v>5.8724763979665941E-6</v>
+        <f t="shared" si="63"/>
+        <v>1.5686274509803921E-6</v>
       </c>
       <c r="M72" s="4">
-        <f>B72*(5-B72)/(J72*$B$60*5)</f>
-        <v>8.1543529411764697E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.6941176470588232E-6</v>
       </c>
       <c r="N72" s="4">
-        <f>B72*(5.5-B72)/(K72*$B$60*5.5)</f>
-        <v>9.547107438016527E-6</v>
+        <f t="shared" si="65"/>
+        <v>1.7501215362177931E-6</v>
       </c>
       <c r="O72">
-        <f t="shared" si="61"/>
-        <v>1.1072368421052634</v>
+        <f t="shared" si="68"/>
+        <v>1.4024999999999999</v>
       </c>
       <c r="P72">
-        <f t="shared" si="62"/>
-        <v>1.2302631578947369</v>
+        <f t="shared" si="69"/>
+        <v>1.5583333333333333</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="63"/>
-        <v>1.3532894736842107</v>
+        <f t="shared" si="70"/>
+        <v>1.7141666666666664</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="B73">
+        <f t="shared" si="59"/>
+        <v>3.8</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="52"/>
+        <v>1.0065789473684212</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" si="66"/>
+        <v>1.118421052631579</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="67"/>
+        <v>1.2302631578947369</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="53"/>
+        <v>0.99346405228758172</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="54"/>
+        <v>0.89411764705882346</v>
+      </c>
+      <c r="H73" s="1">
         <f t="shared" si="55"/>
-        <v>4.2</v>
-      </c>
-      <c r="C73" s="3">
-        <f>$B$59*(4.5/B73)*$B$61</f>
-        <v>0.9107142857142857</v>
-      </c>
-      <c r="D73" s="3">
-        <f t="shared" si="59"/>
-        <v>1.0119047619047619</v>
-      </c>
-      <c r="E73" s="3">
+        <v>0.81283422459893051</v>
+      </c>
+      <c r="I73" s="3">
         <f t="shared" si="60"/>
-        <v>1.1130952380952381</v>
-      </c>
-      <c r="F73" s="1">
-        <f>1-(4.5*$B$61)/B73</f>
-        <v>8.9285714285714413E-2</v>
-      </c>
-      <c r="G73" s="1">
-        <f>B73/(5*$B$61)</f>
-        <v>0.9882352941176471</v>
-      </c>
-      <c r="H73" s="1">
-        <f>B73/(5.5*$B$61)</f>
-        <v>0.89839572192513373</v>
-      </c>
-      <c r="I73" s="3">
-        <f t="shared" si="56"/>
-        <v>0.18214285714285716</v>
+        <v>0.20131578947368425</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="57"/>
-        <v>0.20238095238095238</v>
+        <f t="shared" si="61"/>
+        <v>0.22368421052631582</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="58"/>
-        <v>0.22261904761904763</v>
+        <f t="shared" si="62"/>
+        <v>0.24605263157894741</v>
       </c>
       <c r="L73" s="4">
-        <f>B73*(4.5-B73)/(I73*$B$60*4.5)</f>
-        <v>3.0745098039215664E-6</v>
+        <f t="shared" si="63"/>
+        <v>1.1744952795933187E-6</v>
       </c>
       <c r="M73" s="4">
-        <f>B73*(5-B73)/(J73*$B$60*5)</f>
-        <v>6.6409411764705866E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.6308705882352941E-6</v>
       </c>
       <c r="N73" s="4">
-        <f>B73*(5.5-B73)/(K73*$B$60*5.5)</f>
-        <v>8.9186193485658704E-6</v>
+        <f t="shared" si="65"/>
+        <v>1.9094214876033056E-6</v>
       </c>
       <c r="O73">
-        <f t="shared" si="61"/>
-        <v>1.0017857142857143</v>
+        <f t="shared" si="68"/>
+        <v>1.1072368421052634</v>
       </c>
       <c r="P73">
-        <f t="shared" si="62"/>
-        <v>1.1130952380952381</v>
+        <f t="shared" si="69"/>
+        <v>1.2302631578947369</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="63"/>
-        <v>1.224404761904762</v>
+        <f t="shared" si="70"/>
+        <v>1.3532894736842107</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B74">
+        <f t="shared" si="59"/>
+        <v>4.2</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="52"/>
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" si="66"/>
+        <v>1.0119047619047619</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="67"/>
+        <v>1.1130952380952381</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" ref="F74:F84" si="71">1-(4.5*$B$61)/B74</f>
+        <v>8.9285714285714413E-2</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="54"/>
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="H74" s="1">
         <f t="shared" si="55"/>
-        <v>4.3</v>
-      </c>
-      <c r="C74" s="3">
-        <f>$B$59*(4.5/B74)*$B$61</f>
-        <v>0.88953488372093026</v>
-      </c>
-      <c r="D74" s="3">
-        <f t="shared" si="59"/>
-        <v>0.98837209302325579</v>
-      </c>
-      <c r="E74" s="3">
+        <v>0.89839572192513373</v>
+      </c>
+      <c r="I74" s="3">
         <f t="shared" si="60"/>
-        <v>1.0872093023255813</v>
-      </c>
-      <c r="F74" s="1">
-        <f>1-(4.5*$B$61)/B74</f>
-        <v>0.11046511627906974</v>
-      </c>
-      <c r="G74" s="1">
-        <f>1-(5*$B$61)/B74</f>
-        <v>1.1627906976744096E-2</v>
-      </c>
-      <c r="H74" s="1">
-        <f>B74/(5.5*$B$61)</f>
-        <v>0.9197860962566845</v>
-      </c>
-      <c r="I74" s="3">
-        <f t="shared" si="56"/>
-        <v>0.17790697674418607</v>
+        <v>0.18214285714285716</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" si="57"/>
-        <v>0.19767441860465118</v>
+        <f t="shared" si="61"/>
+        <v>0.20238095238095238</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="58"/>
-        <v>0.21744186046511627</v>
+        <f t="shared" si="62"/>
+        <v>0.22261904761904763</v>
       </c>
       <c r="L74" s="4">
-        <f>B74*(4.5-B74)/(I74*$B$60*4.5)</f>
-        <v>2.1484386347131461E-6</v>
+        <f t="shared" si="63"/>
+        <v>6.1490196078431338E-7</v>
       </c>
       <c r="M74" s="4">
-        <f>B74*(5-B74)/(J74*$B$60*5)</f>
-        <v>6.0908235294117651E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.3281882352941174E-6</v>
       </c>
       <c r="N74" s="4">
-        <f>B74*(5.5-B74)/(K74*$B$60*5.5)</f>
-        <v>8.6292659212445308E-6</v>
+        <f t="shared" si="65"/>
+        <v>1.7837238697131743E-6</v>
       </c>
       <c r="O74">
-        <f t="shared" si="61"/>
-        <v>0.97848837209302331</v>
+        <f t="shared" si="68"/>
+        <v>1.0017857142857143</v>
       </c>
       <c r="P74">
-        <f t="shared" si="62"/>
-        <v>1.0872093023255813</v>
+        <f t="shared" si="69"/>
+        <v>1.1130952380952381</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="63"/>
-        <v>1.1959302325581396</v>
+        <f t="shared" si="70"/>
+        <v>1.224404761904762</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>4.6500000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B75">
+        <f t="shared" si="59"/>
+        <v>4.3</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="52"/>
+        <v>0.88953488372093026</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" si="66"/>
+        <v>0.98837209302325579</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="67"/>
+        <v>1.0872093023255813</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="71"/>
+        <v>0.11046511627906974</v>
+      </c>
+      <c r="G75" s="1">
+        <f t="shared" ref="G75:G84" si="72">1-(5*$B$61)/B75</f>
+        <v>1.1627906976744096E-2</v>
+      </c>
+      <c r="H75" s="1">
         <f t="shared" si="55"/>
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="C75" s="3">
-        <f>$B$59*(4.5/B75)*$B$61</f>
-        <v>0.82258064516129026</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" si="59"/>
-        <v>0.91397849462365588</v>
-      </c>
-      <c r="E75" s="3">
+        <v>0.9197860962566845</v>
+      </c>
+      <c r="I75" s="3">
         <f t="shared" si="60"/>
-        <v>1.0053763440860213</v>
-      </c>
-      <c r="F75" s="1">
-        <f>1-(4.5*$B$61)/B75</f>
-        <v>0.17741935483870985</v>
-      </c>
-      <c r="G75" s="1">
-        <f>1-(5*$B$61)/B75</f>
-        <v>8.6021505376344121E-2</v>
-      </c>
-      <c r="H75" s="1">
-        <f>B75/(5.5*$B$61)</f>
-        <v>0.99465240641711239</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" si="56"/>
-        <v>0.16451612903225807</v>
+        <v>0.17790697674418607</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" si="57"/>
-        <v>0.18279569892473119</v>
+        <f t="shared" si="61"/>
+        <v>0.19767441860465118</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="58"/>
-        <v>0.20107526881720428</v>
+        <f t="shared" si="62"/>
+        <v>0.21744186046511627</v>
       </c>
       <c r="L75" s="4">
-        <f>(4.5*(B75-4.5))/(I75*$B$60*B75)</f>
-        <v>1.7647058823529453E-6</v>
+        <f t="shared" si="63"/>
+        <v>4.2968772694262923E-7</v>
       </c>
       <c r="M75" s="4">
-        <f>(4.5*(B75-4.5))/(J75*$B$60*B75)</f>
-        <v>1.5882352941176506E-6</v>
+        <f t="shared" si="64"/>
+        <v>1.2181647058823532E-6</v>
       </c>
       <c r="N75" s="4">
-        <f>B75*(5.5-B75)/(K75*$B$60*5.5)</f>
-        <v>7.1479338842975181E-6</v>
+        <f t="shared" si="65"/>
+        <v>1.7258531842489062E-6</v>
       </c>
       <c r="O75">
-        <f t="shared" si="61"/>
-        <v>0.90483870967741931</v>
+        <f t="shared" si="68"/>
+        <v>0.97848837209302331</v>
       </c>
       <c r="P75">
-        <f t="shared" si="62"/>
-        <v>1.0053763440860215</v>
+        <f t="shared" si="69"/>
+        <v>1.0872093023255813</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="63"/>
-        <v>1.1059139784946235</v>
+        <f t="shared" si="70"/>
+        <v>1.1959302325581396</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="B76">
+        <f t="shared" si="59"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="52"/>
+        <v>0.82258064516129026</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" si="66"/>
+        <v>0.91397849462365588</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="67"/>
+        <v>1.0053763440860213</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="71"/>
+        <v>0.17741935483870985</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="72"/>
+        <v>8.6021505376344121E-2</v>
+      </c>
+      <c r="H76" s="1">
         <f t="shared" si="55"/>
-        <v>4.7</v>
-      </c>
-      <c r="C76" s="3">
-        <f>$B$59*(4.5/B76)*$B$61</f>
-        <v>0.81382978723404253</v>
-      </c>
-      <c r="D76" s="3">
-        <f t="shared" si="59"/>
-        <v>0.90425531914893609</v>
-      </c>
-      <c r="E76" s="3">
+        <v>0.99465240641711239</v>
+      </c>
+      <c r="I76" s="3">
         <f t="shared" si="60"/>
-        <v>0.99468085106382975</v>
-      </c>
-      <c r="F76" s="1">
-        <f>1-(4.5*$B$61)/B76</f>
-        <v>0.18617021276595758</v>
-      </c>
-      <c r="G76" s="1">
-        <f>1-(5*$B$61)/B76</f>
-        <v>9.5744680851063912E-2</v>
-      </c>
-      <c r="H76" s="1">
-        <f>1-(5.5*$B$61)/B76</f>
-        <v>5.3191489361702482E-3</v>
-      </c>
-      <c r="I76" s="3">
-        <f t="shared" si="56"/>
-        <v>0.16276595744680852</v>
+        <v>0.16451612903225807</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" si="57"/>
-        <v>0.18085106382978722</v>
+        <f t="shared" si="61"/>
+        <v>0.18279569892473119</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="58"/>
-        <v>0.19893617021276597</v>
+        <f t="shared" si="62"/>
+        <v>0.20107526881720428</v>
       </c>
       <c r="L76" s="4">
-        <f>(4.5*(B76-4.5))/(I76*$B$60*B76)</f>
-        <v>2.3529411764705901E-6</v>
+        <f t="shared" ref="L76:L84" si="73">(4.5*(B76-4.5))/(I76*$B$60*B76)</f>
+        <v>3.5294117647058907E-7</v>
       </c>
       <c r="M76" s="4">
-        <f>(4.5*(B76-4.5))/(J76*$B$60*B76)</f>
-        <v>2.1176470588235313E-6</v>
+        <f t="shared" ref="M75:M84" si="74">(4.5*(B76-4.5))/(J76*$B$60*B76)</f>
+        <v>3.1764705882353018E-7</v>
       </c>
       <c r="N76" s="4">
-        <f>(4.5*(B76-4.5))/(K76*$B$60*B76)</f>
-        <v>1.9251336898395737E-6</v>
+        <f t="shared" si="65"/>
+        <v>1.429586776859504E-6</v>
       </c>
       <c r="O76">
-        <f t="shared" si="61"/>
-        <v>0.89521276595744681</v>
+        <f t="shared" si="68"/>
+        <v>0.90483870967741931</v>
       </c>
       <c r="P76">
-        <f t="shared" si="62"/>
-        <v>0.99468085106382964</v>
+        <f t="shared" si="69"/>
+        <v>1.0053763440860215</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="63"/>
-        <v>1.0941489361702128</v>
+        <f t="shared" si="70"/>
+        <v>1.1059139784946235</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="B77">
-        <f t="shared" si="55"/>
-        <v>5</v>
+        <f t="shared" si="59"/>
+        <v>4.7</v>
       </c>
       <c r="C77" s="3">
-        <f>$B$59*(4.5/B77)*$B$61</f>
-        <v>0.76500000000000001</v>
+        <f t="shared" si="52"/>
+        <v>0.81382978723404253</v>
       </c>
       <c r="D77" s="3">
-        <f t="shared" si="59"/>
-        <v>0.85</v>
+        <f t="shared" si="66"/>
+        <v>0.90425531914893609</v>
       </c>
       <c r="E77" s="3">
+        <f t="shared" si="67"/>
+        <v>0.99468085106382975</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="71"/>
+        <v>0.18617021276595758</v>
+      </c>
+      <c r="G77" s="1">
+        <f t="shared" si="72"/>
+        <v>9.5744680851063912E-2</v>
+      </c>
+      <c r="H77" s="1">
+        <f t="shared" ref="H77:H84" si="75">1-(5.5*$B$61)/B77</f>
+        <v>5.3191489361702482E-3</v>
+      </c>
+      <c r="I77" s="3">
         <f t="shared" si="60"/>
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="F77" s="1">
-        <f>1-(4.5*$B$61)/B77</f>
-        <v>0.2350000000000001</v>
-      </c>
-      <c r="G77" s="1">
-        <f>1-(5*$B$61)/B77</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="H77" s="1">
-        <f>1-(5.5*$B$61)/B77</f>
-        <v>6.5000000000000058E-2</v>
-      </c>
-      <c r="I77" s="3">
-        <f t="shared" si="56"/>
-        <v>0.15300000000000002</v>
+        <v>0.16276595744680852</v>
       </c>
       <c r="J77" s="3">
-        <f t="shared" si="57"/>
-        <v>0.17</v>
+        <f t="shared" si="61"/>
+        <v>0.18085106382978722</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="58"/>
-        <v>0.18700000000000003</v>
+        <f t="shared" si="62"/>
+        <v>0.19893617021276597</v>
       </c>
       <c r="L77" s="4">
-        <f>(4.5*(B77-4.5))/(I77*$B$60*B77)</f>
-        <v>5.8823529411764701E-6</v>
+        <f t="shared" si="73"/>
+        <v>4.7058823529411799E-7</v>
       </c>
       <c r="M77" s="4">
-        <f>(4.5*(B77-4.5))/(J77*$B$60*B77)</f>
-        <v>5.2941176470588239E-6</v>
+        <f t="shared" si="74"/>
+        <v>4.2352941176470628E-7</v>
       </c>
       <c r="N77" s="4">
-        <f>(4.5*(B77-4.5))/(K77*$B$60*B77)</f>
-        <v>4.8128342245989298E-6</v>
+        <f t="shared" ref="N77:N84" si="76">(4.5*(B77-4.5))/(K77*$B$60*B77)</f>
+        <v>3.8502673796791479E-7</v>
       </c>
       <c r="O77">
-        <f t="shared" si="61"/>
-        <v>0.84150000000000003</v>
+        <f t="shared" si="68"/>
+        <v>0.89521276595744681</v>
       </c>
       <c r="P77">
-        <f t="shared" si="62"/>
-        <v>0.93499999999999994</v>
+        <f t="shared" si="69"/>
+        <v>0.99468085106382964</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="63"/>
-        <v>1.0285</v>
+        <f t="shared" si="70"/>
+        <v>1.0941489361702128</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78">
-        <f t="shared" si="55"/>
-        <v>6</v>
+        <f t="shared" si="59"/>
+        <v>5</v>
       </c>
       <c r="C78" s="3">
-        <f>$B$59*(4.5/B78)*$B$61</f>
-        <v>0.63749999999999996</v>
+        <f t="shared" si="52"/>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D78" s="3">
-        <f t="shared" si="59"/>
-        <v>0.70833333333333337</v>
+        <f t="shared" si="66"/>
+        <v>0.85</v>
       </c>
       <c r="E78" s="3">
+        <f t="shared" si="67"/>
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="71"/>
+        <v>0.2350000000000001</v>
+      </c>
+      <c r="G78" s="1">
+        <f t="shared" si="72"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="H78" s="1">
+        <f t="shared" si="75"/>
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="I78" s="3">
         <f t="shared" si="60"/>
-        <v>0.77916666666666656</v>
-      </c>
-      <c r="F78" s="1">
-        <f>1-(4.5*$B$61)/B78</f>
-        <v>0.36250000000000004</v>
-      </c>
-      <c r="G78" s="1">
-        <f>1-(5*$B$61)/B78</f>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="H78" s="1">
-        <f>1-(5.5*$B$61)/B78</f>
-        <v>0.22083333333333333</v>
-      </c>
-      <c r="I78" s="3">
-        <f t="shared" si="56"/>
-        <v>0.1275</v>
+        <v>0.15300000000000002</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" si="57"/>
-        <v>0.14166666666666669</v>
+        <f t="shared" si="61"/>
+        <v>0.17</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="58"/>
-        <v>0.15583333333333332</v>
+        <f t="shared" si="62"/>
+        <v>0.18700000000000003</v>
       </c>
       <c r="L78" s="4">
-        <f>(4.5*(B78-4.5))/(I78*$B$60*B78)</f>
-        <v>1.764705882352941E-5</v>
+        <f t="shared" si="73"/>
+        <v>1.176470588235294E-6</v>
       </c>
       <c r="M78" s="4">
-        <f>(4.5*(B78-4.5))/(J78*$B$60*B78)</f>
-        <v>1.5882352941176469E-5</v>
+        <f t="shared" si="74"/>
+        <v>1.0588235294117646E-6</v>
       </c>
       <c r="N78" s="4">
-        <f>(4.5*(B78-4.5))/(K78*$B$60*B78)</f>
-        <v>1.4438502673796793E-5</v>
+        <f t="shared" si="76"/>
+        <v>9.6256684491978599E-7</v>
       </c>
       <c r="O78">
-        <f t="shared" si="61"/>
-        <v>0.70124999999999993</v>
+        <f t="shared" si="68"/>
+        <v>0.84150000000000003</v>
       </c>
       <c r="P78">
-        <f t="shared" si="62"/>
-        <v>0.77916666666666667</v>
+        <f t="shared" si="69"/>
+        <v>0.93499999999999994</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="63"/>
-        <v>0.8570833333333332</v>
+        <f t="shared" si="70"/>
+        <v>1.0285</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <f t="shared" si="55"/>
-        <v>8</v>
+        <f t="shared" si="59"/>
+        <v>6</v>
       </c>
       <c r="C79" s="3">
-        <f>$B$59*(4.5/B79)*$B$61</f>
-        <v>0.47812499999999997</v>
+        <f t="shared" si="52"/>
+        <v>0.63749999999999996</v>
       </c>
       <c r="D79" s="3">
-        <f t="shared" si="59"/>
-        <v>0.53125</v>
+        <f t="shared" si="66"/>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E79" s="3">
+        <f t="shared" si="67"/>
+        <v>0.77916666666666656</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="71"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="G79" s="1">
+        <f t="shared" si="72"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" si="75"/>
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="I79" s="3">
         <f t="shared" si="60"/>
-        <v>0.58437499999999998</v>
-      </c>
-      <c r="F79" s="1">
-        <f>1-(4.5*$B$61)/B79</f>
-        <v>0.52187500000000009</v>
-      </c>
-      <c r="G79" s="1">
-        <f>1-(5*$B$61)/B79</f>
-        <v>0.46875</v>
-      </c>
-      <c r="H79" s="1">
-        <f>1-(5.5*$B$61)/B79</f>
-        <v>0.41562500000000002</v>
-      </c>
-      <c r="I79" s="3">
-        <f t="shared" si="56"/>
-        <v>9.5625000000000002E-2</v>
+        <v>0.1275</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" si="57"/>
-        <v>0.10625000000000001</v>
+        <f t="shared" si="61"/>
+        <v>0.14166666666666669</v>
       </c>
       <c r="K79" s="3">
-        <f t="shared" si="58"/>
-        <v>0.11687500000000001</v>
+        <f t="shared" si="62"/>
+        <v>0.15583333333333332</v>
       </c>
       <c r="L79" s="4">
-        <f>(4.5*(B79-4.5))/(I79*$B$60*B79)</f>
-        <v>4.1176470588235297E-5</v>
+        <f t="shared" si="73"/>
+        <v>3.5294117647058825E-6</v>
       </c>
       <c r="M79" s="4">
-        <f>(4.5*(B79-4.5))/(J79*$B$60*B79)</f>
-        <v>3.7058823529411761E-5</v>
+        <f t="shared" si="74"/>
+        <v>3.1764705882352935E-6</v>
       </c>
       <c r="N79" s="4">
-        <f>(4.5*(B79-4.5))/(K79*$B$60*B79)</f>
-        <v>3.3689839572192512E-5</v>
+        <f t="shared" si="76"/>
+        <v>2.8877005347593582E-6</v>
       </c>
       <c r="O79">
-        <f t="shared" si="61"/>
-        <v>0.52593749999999995</v>
+        <f t="shared" si="68"/>
+        <v>0.70124999999999993</v>
       </c>
       <c r="P79">
-        <f t="shared" si="62"/>
-        <v>0.58437499999999998</v>
+        <f t="shared" si="69"/>
+        <v>0.77916666666666667</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="63"/>
-        <v>0.64281250000000001</v>
+        <f t="shared" si="70"/>
+        <v>0.8570833333333332</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <f t="shared" si="55"/>
-        <v>10</v>
+        <f t="shared" si="59"/>
+        <v>8</v>
       </c>
       <c r="C80" s="3">
-        <f>$B$59*(4.5/B80)*$B$61</f>
-        <v>0.38250000000000001</v>
+        <f t="shared" si="52"/>
+        <v>0.47812499999999997</v>
       </c>
       <c r="D80" s="3">
-        <f t="shared" si="59"/>
-        <v>0.42499999999999999</v>
+        <f t="shared" si="66"/>
+        <v>0.53125</v>
       </c>
       <c r="E80" s="3">
+        <f t="shared" si="67"/>
+        <v>0.58437499999999998</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="71"/>
+        <v>0.52187500000000009</v>
+      </c>
+      <c r="G80" s="1">
+        <f t="shared" si="72"/>
+        <v>0.46875</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="75"/>
+        <v>0.41562500000000002</v>
+      </c>
+      <c r="I80" s="3">
         <f t="shared" si="60"/>
-        <v>0.46750000000000003</v>
-      </c>
-      <c r="F80" s="1">
-        <f>1-(4.5*$B$61)/B80</f>
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="G80" s="1">
-        <f>1-(5*$B$61)/B80</f>
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="H80" s="1">
-        <f>1-(5.5*$B$61)/B80</f>
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="I80" s="3">
-        <f t="shared" si="56"/>
-        <v>7.6500000000000012E-2</v>
+        <v>9.5625000000000002E-2</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="57"/>
-        <v>8.5000000000000006E-2</v>
+        <f t="shared" si="61"/>
+        <v>0.10625000000000001</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="58"/>
-        <v>9.3500000000000014E-2</v>
+        <f t="shared" si="62"/>
+        <v>0.11687500000000001</v>
       </c>
       <c r="L80" s="4">
-        <f>(4.5*(B80-4.5))/(I80*$B$60*B80)</f>
-        <v>6.4705882352941171E-5</v>
+        <f t="shared" si="73"/>
+        <v>8.2352941176470581E-6</v>
       </c>
       <c r="M80" s="4">
-        <f>(4.5*(B80-4.5))/(J80*$B$60*B80)</f>
-        <v>5.823529411764706E-5</v>
+        <f t="shared" si="74"/>
+        <v>7.4117647058823526E-6</v>
       </c>
       <c r="N80" s="4">
-        <f>(4.5*(B80-4.5))/(K80*$B$60*B80)</f>
-        <v>5.2941176470588231E-5</v>
+        <f t="shared" si="76"/>
+        <v>6.737967914438503E-6</v>
       </c>
       <c r="O80">
-        <f t="shared" si="61"/>
-        <v>0.42075000000000001</v>
+        <f t="shared" si="68"/>
+        <v>0.52593749999999995</v>
       </c>
       <c r="P80">
-        <f t="shared" si="62"/>
-        <v>0.46749999999999997</v>
+        <f t="shared" si="69"/>
+        <v>0.58437499999999998</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="63"/>
-        <v>0.51424999999999998</v>
+        <f t="shared" si="70"/>
+        <v>0.64281250000000001</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <f t="shared" si="55"/>
-        <v>12</v>
+        <f t="shared" si="59"/>
+        <v>10</v>
       </c>
       <c r="C81" s="3">
-        <f>$B$59*(4.5/B81)*$B$61</f>
-        <v>0.31874999999999998</v>
+        <f t="shared" si="52"/>
+        <v>0.38250000000000001</v>
       </c>
       <c r="D81" s="3">
-        <f t="shared" si="59"/>
-        <v>0.35416666666666669</v>
+        <f t="shared" si="66"/>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E81" s="3">
+        <f t="shared" si="67"/>
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="71"/>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="G81" s="1">
+        <f t="shared" si="72"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H81" s="1">
+        <f t="shared" si="75"/>
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="I81" s="3">
         <f t="shared" si="60"/>
-        <v>0.38958333333333328</v>
-      </c>
-      <c r="F81" s="1">
-        <f>1-(4.5*$B$61)/B81</f>
-        <v>0.68125000000000002</v>
-      </c>
-      <c r="G81" s="1">
-        <f>1-(5*$B$61)/B81</f>
-        <v>0.64583333333333326</v>
-      </c>
-      <c r="H81" s="1">
-        <f>1-(5.5*$B$61)/B81</f>
-        <v>0.61041666666666661</v>
-      </c>
-      <c r="I81" s="3">
-        <f t="shared" si="56"/>
-        <v>6.3750000000000001E-2</v>
+        <v>7.6500000000000012E-2</v>
       </c>
       <c r="J81" s="3">
-        <f t="shared" si="57"/>
-        <v>7.0833333333333345E-2</v>
+        <f t="shared" si="61"/>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="K81" s="3">
-        <f t="shared" si="58"/>
-        <v>7.7916666666666662E-2</v>
+        <f t="shared" si="62"/>
+        <v>9.3500000000000014E-2</v>
       </c>
       <c r="L81" s="4">
-        <f>(4.5*(B81-4.5))/(I81*$B$60*B81)</f>
-        <v>8.8235294117647065E-5</v>
+        <f t="shared" si="73"/>
+        <v>1.2941176470588234E-5</v>
       </c>
       <c r="M81" s="4">
-        <f>(4.5*(B81-4.5))/(J81*$B$60*B81)</f>
-        <v>7.9411764705882346E-5</v>
+        <f t="shared" si="74"/>
+        <v>1.1647058823529408E-5</v>
       </c>
       <c r="N81" s="4">
-        <f>(4.5*(B81-4.5))/(K81*$B$60*B81)</f>
-        <v>7.2192513368983963E-5</v>
+        <f t="shared" si="76"/>
+        <v>1.0588235294117644E-5</v>
       </c>
       <c r="O81">
-        <f t="shared" si="61"/>
-        <v>0.35062499999999996</v>
+        <f t="shared" si="68"/>
+        <v>0.42075000000000001</v>
       </c>
       <c r="P81">
-        <f t="shared" si="62"/>
-        <v>0.38958333333333334</v>
+        <f t="shared" si="69"/>
+        <v>0.46749999999999997</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="63"/>
-        <v>0.4285416666666666</v>
+        <f t="shared" si="70"/>
+        <v>0.51424999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B82">
-        <f t="shared" si="55"/>
-        <v>15</v>
+        <f t="shared" si="59"/>
+        <v>12</v>
       </c>
       <c r="C82" s="3">
-        <f>$B$59*(4.5/B82)*$B$61</f>
-        <v>0.255</v>
+        <f t="shared" si="52"/>
+        <v>0.31874999999999998</v>
       </c>
       <c r="D82" s="3">
-        <f t="shared" si="59"/>
-        <v>0.28333333333333333</v>
+        <f t="shared" si="66"/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E82" s="3">
+        <f t="shared" si="67"/>
+        <v>0.38958333333333328</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="71"/>
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="G82" s="1">
+        <f t="shared" si="72"/>
+        <v>0.64583333333333326</v>
+      </c>
+      <c r="H82" s="1">
+        <f t="shared" si="75"/>
+        <v>0.61041666666666661</v>
+      </c>
+      <c r="I82" s="3">
         <f t="shared" si="60"/>
-        <v>0.31166666666666665</v>
-      </c>
-      <c r="F82" s="1">
-        <f>1-(4.5*$B$61)/B82</f>
-        <v>0.745</v>
-      </c>
-      <c r="G82" s="1">
-        <f>1-(5*$B$61)/B82</f>
-        <v>0.71666666666666667</v>
-      </c>
-      <c r="H82" s="1">
-        <f>1-(5.5*$B$61)/B82</f>
-        <v>0.68833333333333335</v>
-      </c>
-      <c r="I82" s="3">
-        <f t="shared" si="56"/>
-        <v>5.1000000000000004E-2</v>
+        <v>6.3750000000000001E-2</v>
       </c>
       <c r="J82" s="3">
-        <f t="shared" si="57"/>
-        <v>5.6666666666666671E-2</v>
+        <f t="shared" si="61"/>
+        <v>7.0833333333333345E-2</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="58"/>
-        <v>6.2333333333333331E-2</v>
+        <f t="shared" si="62"/>
+        <v>7.7916666666666662E-2</v>
       </c>
       <c r="L82" s="4">
-        <f>(4.5*(B82-4.5))/(I82*$B$60*B82)</f>
-        <v>1.2352941176470587E-4</v>
+        <f t="shared" si="73"/>
+        <v>1.764705882352941E-5</v>
       </c>
       <c r="M82" s="4">
-        <f>(4.5*(B82-4.5))/(J82*$B$60*B82)</f>
-        <v>1.1117647058823528E-4</v>
+        <f t="shared" si="74"/>
+        <v>1.5882352941176466E-5</v>
       </c>
       <c r="N82" s="4">
-        <f>(4.5*(B82-4.5))/(K82*$B$60*B82)</f>
-        <v>1.0106951871657755E-4</v>
+        <f t="shared" si="76"/>
+        <v>1.4438502673796791E-5</v>
       </c>
       <c r="O82">
-        <f t="shared" si="61"/>
-        <v>0.28050000000000003</v>
+        <f t="shared" si="68"/>
+        <v>0.35062499999999996</v>
       </c>
       <c r="P82">
-        <f t="shared" si="62"/>
-        <v>0.31166666666666665</v>
+        <f t="shared" si="69"/>
+        <v>0.38958333333333334</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="63"/>
-        <v>0.34283333333333332</v>
+        <f t="shared" si="70"/>
+        <v>0.4285416666666666</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="59"/>
+        <v>15</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="52"/>
+        <v>0.255</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" si="66"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="67"/>
+        <v>0.31166666666666665</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="71"/>
+        <v>0.745</v>
+      </c>
+      <c r="G83" s="1">
+        <f t="shared" si="72"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="75"/>
+        <v>0.68833333333333335</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="60"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="61"/>
+        <v>5.6666666666666671E-2</v>
+      </c>
+      <c r="K83" s="3">
+        <f t="shared" si="62"/>
+        <v>6.2333333333333331E-2</v>
+      </c>
+      <c r="L83" s="4">
+        <f t="shared" si="73"/>
+        <v>2.4705882352941174E-5</v>
+      </c>
+      <c r="M83" s="4">
+        <f t="shared" si="74"/>
+        <v>2.2235294117647053E-5</v>
+      </c>
+      <c r="N83" s="4">
+        <f t="shared" si="76"/>
+        <v>2.0213903743315512E-5</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="68"/>
+        <v>0.28050000000000003</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="69"/>
+        <v>0.31166666666666665</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="70"/>
+        <v>0.34283333333333332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>20</v>
       </c>
-      <c r="B83">
-        <f t="shared" si="55"/>
+      <c r="B84">
+        <f t="shared" si="59"/>
         <v>20</v>
       </c>
-      <c r="C83" s="3">
-        <f>$B$59*(4.5/B83)*$B$61</f>
+      <c r="C84" s="3">
+        <f t="shared" si="52"/>
         <v>0.19125</v>
       </c>
-      <c r="D83" s="3">
-        <f t="shared" si="59"/>
+      <c r="D84" s="3">
+        <f t="shared" si="66"/>
         <v>0.21249999999999999</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E84" s="3">
+        <f t="shared" si="67"/>
+        <v>0.23375000000000001</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="71"/>
+        <v>0.80875000000000008</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="72"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="75"/>
+        <v>0.76624999999999999</v>
+      </c>
+      <c r="I84" s="3">
         <f t="shared" si="60"/>
-        <v>0.23375000000000001</v>
-      </c>
-      <c r="F83" s="1">
-        <f>1-(4.5*$B$61)/B83</f>
-        <v>0.80875000000000008</v>
-      </c>
-      <c r="G83" s="1">
-        <f>1-(5*$B$61)/B83</f>
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="H83" s="1">
-        <f>1-(5.5*$B$61)/B83</f>
-        <v>0.76624999999999999</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" si="56"/>
         <v>3.8250000000000006E-2</v>
       </c>
-      <c r="J83" s="3">
-        <f t="shared" si="57"/>
+      <c r="J84" s="3">
+        <f t="shared" si="61"/>
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="K83" s="3">
-        <f t="shared" si="58"/>
+      <c r="K84" s="3">
+        <f t="shared" si="62"/>
         <v>4.6750000000000007E-2</v>
       </c>
-      <c r="L83" s="4">
-        <f>(4.5*(B83-4.5))/(I83*$B$60*B83)</f>
-        <v>1.8235294117647057E-4</v>
-      </c>
-      <c r="M83" s="4">
-        <f>(4.5*(B83-4.5))/(J83*$B$60*B83)</f>
-        <v>1.6411764705882354E-4</v>
-      </c>
-      <c r="N83" s="4">
-        <f>(4.5*(B83-4.5))/(K83*$B$60*B83)</f>
-        <v>1.4919786096256684E-4</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="61"/>
+      <c r="L84" s="4">
+        <f t="shared" si="73"/>
+        <v>3.6470588235294114E-5</v>
+      </c>
+      <c r="M84" s="4">
+        <f t="shared" si="74"/>
+        <v>3.2823529411764699E-5</v>
+      </c>
+      <c r="N84" s="4">
+        <f t="shared" si="76"/>
+        <v>2.9839572192513362E-5</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="68"/>
         <v>0.21037500000000001</v>
       </c>
-      <c r="P83">
-        <f t="shared" si="62"/>
+      <c r="P84">
+        <f t="shared" si="69"/>
         <v>0.23374999999999999</v>
       </c>
-      <c r="Q83">
-        <f t="shared" si="63"/>
+      <c r="Q84">
+        <f t="shared" si="70"/>
         <v>0.25712499999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>20</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F87" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G87" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H87" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I86" s="6" t="s">
+      <c r="I87" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J86" s="6" t="s">
+      <c r="J87" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K86" s="6" t="s">
+      <c r="K87" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L86" s="6" t="s">
+      <c r="L87" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M86" s="6" t="s">
+      <c r="M87" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="N86" s="6" t="s">
+      <c r="N87" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O86" s="6" t="s">
+      <c r="O87" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P86" s="6" t="s">
+      <c r="P87" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Q86" s="6" t="s">
+      <c r="Q87" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R86" s="6" t="s">
+      <c r="R87" s="5" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>0</v>
-      </c>
-      <c r="B87">
-        <f>A87</f>
-        <v>0</v>
-      </c>
-      <c r="C87" s="3" t="e">
-        <f>$B$59*(4.5/B87)*$B$61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D87" s="3" t="e">
-        <f>$B$59*(5/C87)*$B$61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E87" s="3" t="e">
-        <f>$B$59*(5.5/D87)*$B$61</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F87" s="1">
-        <f>B87/(4.5*$B$61)</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="1">
-        <f>B87/(5*$B$61)</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="1">
-        <f>B87/(5.5*$B$61)</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="7">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="J87" s="3">
-        <f>(4.5-B87)*F87/($B$60*I87)</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="3">
-        <f>(5-B87)*G87/($B$60*I87)</f>
-        <v>0</v>
-      </c>
-      <c r="L87" s="3">
-        <f>(5.5-B87)*H87/($B$60*I87)</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="4" t="e">
-        <f>B87*($B$58-B87)/(J87*$B$60*4.5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N87" s="4" t="e">
-        <f>B87*($B$58-B87)/(K87*$B$60*5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O87" s="4" t="e">
-        <f>B87*($B$58-B87)/(L87*$B$60*5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P87" t="e">
-        <f>C87+J87/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q87" t="e">
-        <f>D87+K87/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R87" t="e">
-        <f>E87+L87/2</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B88">
-        <f t="shared" ref="B88:B105" si="64">A88</f>
-        <v>0.8</v>
-      </c>
-      <c r="C88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="D88" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1.5</v>
+        <f>A88</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="3" t="e">
+        <f>$B$59*(4.5/B88)*$B$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D88" s="3" t="e">
+        <f>$B$59*(5/C88)*$B$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E88" s="3" t="e">
+        <f>$B$59*(5.5/D88)*$B$61</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F88" s="1">
-        <f>B88/(4.5*$B$61)</f>
-        <v>0.20915032679738566</v>
+        <f t="shared" ref="F88:F95" si="77">B88/(4.5*$B$61)</f>
+        <v>0</v>
       </c>
       <c r="G88" s="1">
-        <f>B88/(5*$B$61)</f>
-        <v>0.18823529411764706</v>
+        <f t="shared" ref="G88:G96" si="78">B88/(5*$B$61)</f>
+        <v>0</v>
       </c>
       <c r="H88" s="1">
-        <f>B88/(5.5*$B$61)</f>
-        <v>0.17112299465240643</v>
-      </c>
-      <c r="I88" s="7">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="J88" s="3">
-        <f t="shared" ref="J88:J94" si="65">(4.5-B88)*F88/($B$60*I88)</f>
-        <v>3.2930051453205399E-2</v>
-      </c>
-      <c r="K88" s="3">
-        <f t="shared" ref="K88:K95" si="66">(5-B88)*G88/($B$60*I88)</f>
-        <v>3.364205256570714E-2</v>
-      </c>
-      <c r="L88" s="3">
-        <f t="shared" ref="L88:L97" si="67">(5.5-B88)*H88/($B$60*I88)</f>
-        <v>3.4224598930481291E-2</v>
-      </c>
-      <c r="M88" s="4">
-        <f>B88*(4.5-B88)/(J88*$B$60*4.5)</f>
-        <v>3.9950000000000002E-5</v>
-      </c>
-      <c r="N88" s="4">
-        <f>B88*(5-B88)/(K88*$B$60*5)</f>
-        <v>3.9949999999999995E-5</v>
-      </c>
-      <c r="O88" s="4">
-        <f>B88*(5.5-B88)/(L88*$B$60*5.5)</f>
-        <v>3.9949999999999995E-5</v>
-      </c>
-      <c r="P88">
-        <f>C88+J88/2</f>
-        <v>1.5164650257266028</v>
-      </c>
-      <c r="Q88">
-        <f>D88+K88/2</f>
-        <v>1.5168210262828536</v>
-      </c>
-      <c r="R88">
-        <f>E88+L88/2</f>
-        <v>1.5171122994652406</v>
+        <f t="shared" ref="H88:H98" si="79">B88/(5.5*$B$61)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="6">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J88" s="3" t="e">
+        <f>$B$62*C88</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K88" s="3" t="e">
+        <f t="shared" ref="K88:K106" si="80">$B$62*D88</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L88" s="3" t="e">
+        <f t="shared" ref="L88:L106" si="81">$B$62*E88</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M88" s="4" t="e">
+        <f>B88*($B$58-B88)/(J88*$B$60*4.5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N88" s="4" t="e">
+        <f>B88*($B$58-B88)/(K88*$B$60*5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O88" s="4" t="e">
+        <f>B88*($B$58-B88)/(L88*$B$60*5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P88" t="e">
+        <f t="shared" ref="P88:P106" si="82">C88+J88/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q88" t="e">
+        <f t="shared" ref="Q88:Q106" si="83">D88+K88/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R88" t="e">
+        <f t="shared" ref="R88:R106" si="84">E88+L88/2</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="B89">
-        <f t="shared" si="64"/>
-        <v>1.6</v>
+        <f t="shared" ref="B89:B106" si="85">A89</f>
+        <v>0.8</v>
       </c>
       <c r="C89" s="3">
         <v>1.5</v>
@@ -22375,64 +22306,64 @@
         <v>1.5</v>
       </c>
       <c r="F89" s="1">
-        <f>B89/(4.5*$B$61)</f>
-        <v>0.41830065359477131</v>
+        <f t="shared" si="77"/>
+        <v>0.20915032679738566</v>
       </c>
       <c r="G89" s="1">
-        <f>B89/(5*$B$61)</f>
-        <v>0.37647058823529411</v>
+        <f t="shared" si="78"/>
+        <v>0.18823529411764706</v>
       </c>
       <c r="H89" s="1">
-        <f>B89/(5.5*$B$61)</f>
-        <v>0.34224598930481287</v>
-      </c>
-      <c r="I89" s="7">
+        <f t="shared" si="79"/>
+        <v>0.17112299465240643</v>
+      </c>
+      <c r="I89" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" si="65"/>
-        <v>5.1620080656376029E-2</v>
+        <f t="shared" ref="J89:J106" si="86">$B$62*C89</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K89" s="3">
-        <f t="shared" si="66"/>
-        <v>5.4468085106382978E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L89" s="3">
-        <f t="shared" si="67"/>
-        <v>5.6798270565479585E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M89" s="4">
-        <f>B89*(4.5-B89)/(J89*$B$60*4.5)</f>
-        <v>3.9949999999999995E-5</v>
+        <f t="shared" ref="M89:M97" si="87">B89*(4.5-B89)/(J89*$B$60*4.5)</f>
+        <v>5.8469135802469141E-7</v>
       </c>
       <c r="N89" s="4">
-        <f>B89*(5-B89)/(K89*$B$60*5)</f>
-        <v>3.9950000000000009E-5</v>
+        <f t="shared" ref="N89:N100" si="88">B89*(5-B89)/(K89*$B$60*5)</f>
+        <v>5.9733333333333339E-7</v>
       </c>
       <c r="O89" s="4">
-        <f>B89*(5.5-B89)/(L89*$B$60*5.5)</f>
-        <v>3.9949999999999989E-5</v>
+        <f t="shared" ref="O89:Q100" si="89">B89*(5.5-B89)/(L89*$B$60*5.5)</f>
+        <v>6.076767676767677E-7</v>
       </c>
       <c r="P89">
-        <f>C89+J89/2</f>
-        <v>1.525810040328188</v>
+        <f t="shared" si="82"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="Q89">
-        <f>D89+K89/2</f>
-        <v>1.5272340425531914</v>
+        <f t="shared" si="83"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="R89">
-        <f>E89+L89/2</f>
-        <v>1.5283991352827397</v>
+        <f t="shared" si="84"/>
+        <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="B90">
-        <f t="shared" si="64"/>
-        <v>1.9</v>
+        <f t="shared" si="85"/>
+        <v>1.6</v>
       </c>
       <c r="C90" s="3">
         <v>1.5</v>
@@ -22444,64 +22375,64 @@
         <v>1.5</v>
       </c>
       <c r="F90" s="1">
-        <f>B90/(4.5*$B$61)</f>
-        <v>0.49673202614379086</v>
+        <f t="shared" si="77"/>
+        <v>0.41830065359477131</v>
       </c>
       <c r="G90" s="1">
-        <f>B90/(5*$B$61)</f>
-        <v>0.44705882352941173</v>
+        <f t="shared" si="78"/>
+        <v>0.37647058823529411</v>
       </c>
       <c r="H90" s="1">
-        <f>B90/(5.5*$B$61)</f>
-        <v>0.40641711229946526</v>
-      </c>
-      <c r="I90" s="7">
+        <f t="shared" si="79"/>
+        <v>0.34224598930481287</v>
+      </c>
+      <c r="I90" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" si="65"/>
-        <v>5.4957585871227926E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="66"/>
-        <v>5.8973717146433034E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L90" s="3">
-        <f t="shared" si="67"/>
-        <v>6.2259642735237229E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M90" s="4">
-        <f>B90*(4.5-B90)/(J90*$B$60*4.5)</f>
-        <v>3.9949999999999995E-5</v>
+        <f t="shared" si="87"/>
+        <v>9.1654320987654312E-7</v>
       </c>
       <c r="N90" s="4">
-        <f>B90*(5-B90)/(K90*$B$60*5)</f>
-        <v>3.9950000000000009E-5</v>
+        <f t="shared" si="88"/>
+        <v>9.6711111111111123E-7</v>
       </c>
       <c r="O90" s="4">
-        <f>B90*(5.5-B90)/(L90*$B$60*5.5)</f>
-        <v>3.9950000000000002E-5</v>
+        <f t="shared" si="89"/>
+        <v>1.0084848484848485E-6</v>
       </c>
       <c r="P90">
-        <f>C90+J90/2</f>
-        <v>1.5274787929356139</v>
+        <f t="shared" si="82"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="Q90">
-        <f>D90+K90/2</f>
-        <v>1.5294868585732164</v>
+        <f t="shared" si="83"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="R90">
-        <f>E90+L90/2</f>
-        <v>1.5311298213676185</v>
+        <f t="shared" si="84"/>
+        <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="B91">
-        <f t="shared" si="64"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" si="85"/>
+        <v>1.9</v>
       </c>
       <c r="C91" s="3">
         <v>1.5</v>
@@ -22513,64 +22444,64 @@
         <v>1.5</v>
       </c>
       <c r="F91" s="1">
-        <f>B91/(4.5*$B$61)</f>
-        <v>0.57516339869281052</v>
+        <f t="shared" si="77"/>
+        <v>0.49673202614379086</v>
       </c>
       <c r="G91" s="1">
-        <f>B91/(5*$B$61)</f>
-        <v>0.51764705882352946</v>
+        <f t="shared" si="78"/>
+        <v>0.44705882352941173</v>
       </c>
       <c r="H91" s="1">
-        <f>B91/(5.5*$B$61)</f>
-        <v>0.4705882352941177</v>
-      </c>
-      <c r="I91" s="7">
+        <f t="shared" si="79"/>
+        <v>0.40641711229946526</v>
+      </c>
+      <c r="I91" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="65"/>
-        <v>5.6292587957168683E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="66"/>
-        <v>6.1677096370463078E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="67"/>
-        <v>6.608260325406759E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M91" s="4">
-        <f>B91*(4.5-B91)/(J91*$B$60*4.5)</f>
-        <v>3.9949999999999995E-5</v>
+        <f t="shared" si="87"/>
+        <v>9.7580246913580246E-7</v>
       </c>
       <c r="N91" s="4">
-        <f>B91*(5-B91)/(K91*$B$60*5)</f>
-        <v>3.9950000000000002E-5</v>
+        <f t="shared" si="88"/>
+        <v>1.0471111111111111E-6</v>
       </c>
       <c r="O91" s="4">
-        <f>B91*(5.5-B91)/(L91*$B$60*5.5)</f>
-        <v>3.9949999999999995E-5</v>
+        <f t="shared" si="89"/>
+        <v>1.1054545454545454E-6</v>
       </c>
       <c r="P91">
-        <f>C91+J91/2</f>
-        <v>1.5281462939785844</v>
+        <f t="shared" si="82"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="Q91">
-        <f>D91+K91/2</f>
-        <v>1.5308385481852316</v>
+        <f t="shared" si="83"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="R91">
-        <f>E91+L91/2</f>
-        <v>1.5330413016270339</v>
+        <f t="shared" si="84"/>
+        <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B92">
-        <f t="shared" si="64"/>
-        <v>2.5</v>
+        <f t="shared" si="85"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C92" s="3">
         <v>1.5</v>
@@ -22582,1015 +22513,2214 @@
         <v>1.5</v>
       </c>
       <c r="F92" s="1">
-        <f>B92/(4.5*$B$61)</f>
-        <v>0.65359477124183007</v>
+        <f t="shared" si="77"/>
+        <v>0.57516339869281052</v>
       </c>
       <c r="G92" s="1">
-        <f>B92/(5*$B$61)</f>
-        <v>0.58823529411764708</v>
+        <f t="shared" si="78"/>
+        <v>0.51764705882352946</v>
       </c>
       <c r="H92" s="1">
-        <f>B92/(5.5*$B$61)</f>
-        <v>0.53475935828877008</v>
-      </c>
-      <c r="I92" s="7">
+        <f t="shared" si="79"/>
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="I92" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J92" s="3">
-        <f t="shared" si="65"/>
-        <v>5.5625086914198305E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="66"/>
-        <v>6.2578222778473094E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L92" s="3">
-        <f t="shared" si="67"/>
-        <v>6.8267152121970653E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M92" s="4">
-        <f>B92*(4.5-B92)/(J92*$B$60*4.5)</f>
-        <v>3.9950000000000002E-5</v>
+        <f t="shared" si="87"/>
+        <v>9.9950617283950607E-7</v>
       </c>
       <c r="N92" s="4">
-        <f>B92*(5-B92)/(K92*$B$60*5)</f>
-        <v>3.9949999999999995E-5</v>
+        <f t="shared" si="88"/>
+        <v>1.0951111111111111E-6</v>
       </c>
       <c r="O92" s="4">
-        <f>B92*(5.5-B92)/(L92*$B$60*5.5)</f>
-        <v>3.9949999999999995E-5</v>
+        <f t="shared" si="89"/>
+        <v>1.1733333333333333E-6</v>
       </c>
       <c r="P92">
-        <f>C92+J92/2</f>
-        <v>1.527812543457099</v>
+        <f t="shared" si="82"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="Q92">
-        <f>D92+K92/2</f>
-        <v>1.5312891113892366</v>
+        <f t="shared" si="83"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="R92">
-        <f>E92+L92/2</f>
-        <v>1.5341335760609853</v>
+        <f t="shared" si="84"/>
+        <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B93">
-        <f t="shared" si="64"/>
-        <v>3</v>
+        <f t="shared" si="85"/>
+        <v>2.5</v>
       </c>
       <c r="C93" s="3">
-        <f>$B$59*(4.5/B93)*$B$61</f>
-        <v>1.2749999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="D93" s="3">
-        <f t="shared" ref="D93:D105" si="68">$B$59*(5/B93)*$B$61</f>
-        <v>1.4166666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="E93" s="3">
         <v>1.5</v>
       </c>
       <c r="F93" s="1">
-        <f>B93/(4.5*$B$61)</f>
-        <v>0.78431372549019618</v>
+        <f t="shared" si="77"/>
+        <v>0.65359477124183007</v>
       </c>
       <c r="G93" s="1">
-        <f>B93/(5*$B$61)</f>
-        <v>0.70588235294117652</v>
+        <f t="shared" si="78"/>
+        <v>0.58823529411764708</v>
       </c>
       <c r="H93" s="1">
-        <f>B93/(5.5*$B$61)</f>
-        <v>0.64171122994652408</v>
-      </c>
-      <c r="I93" s="7">
+        <f t="shared" si="79"/>
+        <v>0.53475935828877008</v>
+      </c>
+      <c r="I93" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J93" s="3">
-        <f t="shared" si="65"/>
-        <v>5.0062578222778487E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="66"/>
-        <v>6.0075093867334173E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="L93" s="3">
-        <f t="shared" si="67"/>
-        <v>6.826715212197064E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M93" s="4">
-        <f>B93*(4.5-B93)/(J93*$B$60*4.5)</f>
-        <v>3.9949999999999989E-5</v>
+        <f t="shared" si="87"/>
+        <v>9.8765432098765437E-7</v>
       </c>
       <c r="N93" s="4">
-        <f>B93*(5-B93)/(K93*$B$60*5)</f>
-        <v>3.9949999999999995E-5</v>
+        <f t="shared" si="88"/>
+        <v>1.111111111111111E-6</v>
       </c>
       <c r="O93" s="4">
-        <f>B93*(5.5-B93)/(L93*$B$60*5.5)</f>
-        <v>3.9950000000000009E-5</v>
+        <f t="shared" si="89"/>
+        <v>1.2121212121212122E-6</v>
       </c>
       <c r="P93">
-        <f>C93+J93/2</f>
-        <v>1.3000312891113892</v>
+        <f t="shared" si="82"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="Q93">
-        <f>D93+K93/2</f>
-        <v>1.4467042136003339</v>
+        <f t="shared" si="83"/>
+        <v>1.7250000000000001</v>
       </c>
       <c r="R93">
-        <f>E93+L93/2</f>
-        <v>1.5341335760609853</v>
+        <f t="shared" si="84"/>
+        <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="B94">
-        <f t="shared" si="64"/>
-        <v>3.8</v>
+        <f t="shared" si="85"/>
+        <v>3</v>
       </c>
       <c r="C94" s="3">
-        <f>$B$59*(4.5/B94)*$B$61</f>
-        <v>1.0065789473684212</v>
+        <f t="shared" ref="C94:C106" si="90">$B$59*(4.5/B94)*$B$61</f>
+        <v>1.2749999999999999</v>
       </c>
       <c r="D94" s="3">
-        <f t="shared" si="68"/>
-        <v>1.118421052631579</v>
+        <f t="shared" ref="D94:D106" si="91">$B$59*(5/B94)*$B$61</f>
+        <v>1.4166666666666667</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" ref="E94:E105" si="69">$B$59*(5.5/B94)*$B$61</f>
-        <v>1.2302631578947369</v>
+        <v>1.5</v>
       </c>
       <c r="F94" s="1">
-        <f>B94/(4.5*$B$61)</f>
-        <v>0.99346405228758172</v>
+        <f t="shared" si="77"/>
+        <v>0.78431372549019618</v>
       </c>
       <c r="G94" s="1">
-        <f>B94/(5*$B$61)</f>
-        <v>0.89411764705882346</v>
+        <f t="shared" si="78"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="H94" s="1">
-        <f>B94/(5.5*$B$61)</f>
-        <v>0.81283422459893051</v>
-      </c>
-      <c r="I94" s="7">
+        <f t="shared" si="79"/>
+        <v>0.64171122994652408</v>
+      </c>
+      <c r="I94" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J94" s="3">
-        <f t="shared" si="65"/>
-        <v>2.9592546238353504E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.38249999999999995</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="66"/>
-        <v>4.5657071339173967E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.42499999999999999</v>
       </c>
       <c r="L94" s="3">
-        <f t="shared" si="67"/>
-        <v>5.8800773694390726E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.44999999999999996</v>
       </c>
       <c r="M94" s="4">
-        <f>B94*(4.5-B94)/(J94*$B$60*4.5)</f>
-        <v>3.9950000000000002E-5</v>
+        <f t="shared" si="87"/>
+        <v>1.0457516339869283E-6</v>
       </c>
       <c r="N94" s="4">
-        <f>B94*(5-B94)/(K94*$B$60*5)</f>
-        <v>3.9950000000000002E-5</v>
+        <f t="shared" si="88"/>
+        <v>1.1294117647058824E-6</v>
       </c>
       <c r="O94" s="4">
-        <f>B94*(5.5-B94)/(L94*$B$60*5.5)</f>
-        <v>3.9949999999999989E-5</v>
+        <f t="shared" si="89"/>
+        <v>1.2121212121212122E-6</v>
       </c>
       <c r="P94">
-        <f>C94+J94/2</f>
-        <v>1.0213752204875981</v>
+        <f t="shared" si="82"/>
+        <v>1.4662499999999998</v>
       </c>
       <c r="Q94">
-        <f>D94+K94/2</f>
-        <v>1.141249588301166</v>
+        <f t="shared" si="83"/>
+        <v>1.6291666666666667</v>
       </c>
       <c r="R94">
-        <f>E94+L94/2</f>
-        <v>1.2596635447419322</v>
+        <f t="shared" si="84"/>
+        <v>1.7250000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="B95">
-        <f t="shared" si="64"/>
-        <v>4.2</v>
+        <f t="shared" si="85"/>
+        <v>3.8</v>
       </c>
       <c r="C95" s="3">
-        <f>$B$59*(4.5/B95)*$B$61</f>
-        <v>0.9107142857142857</v>
+        <f t="shared" si="90"/>
+        <v>1.0065789473684212</v>
       </c>
       <c r="D95" s="3">
-        <f t="shared" si="68"/>
-        <v>1.0119047619047619</v>
+        <f t="shared" si="91"/>
+        <v>1.118421052631579</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="69"/>
-        <v>1.1130952380952381</v>
+        <f t="shared" ref="E95:E106" si="92">$B$59*(5.5/B95)*$B$61</f>
+        <v>1.2302631578947369</v>
       </c>
       <c r="F95" s="1">
-        <f>1-(4.5*$B$61)/B95</f>
-        <v>8.9285714285714413E-2</v>
+        <f t="shared" si="77"/>
+        <v>0.99346405228758172</v>
       </c>
       <c r="G95" s="1">
-        <f>B95/(5*$B$61)</f>
-        <v>0.9882352941176471</v>
+        <f t="shared" si="78"/>
+        <v>0.89411764705882346</v>
       </c>
       <c r="H95" s="1">
-        <f>B95/(5.5*$B$61)</f>
-        <v>0.89839572192513373</v>
-      </c>
-      <c r="I95" s="7">
+        <f t="shared" si="79"/>
+        <v>0.81283422459893051</v>
+      </c>
+      <c r="I95" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J95" s="3">
-        <f t="shared" ref="J95:J104" si="70">(4.5)*F95/($B$60*I95)</f>
-        <v>1.7097264437689993E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.30197368421052634</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="66"/>
-        <v>3.3642052565707126E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.33552631578947367</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="67"/>
-        <v>4.9698486744794622E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.36907894736842106</v>
       </c>
       <c r="M95" s="4">
-        <f>B95*(4.5-B95)/(J95*$B$60*4.5)</f>
-        <v>3.2753777777777719E-5</v>
+        <f t="shared" si="87"/>
+        <v>7.8299685306221275E-7</v>
       </c>
       <c r="N95" s="4">
-        <f>B95*(5-B95)/(K95*$B$60*5)</f>
-        <v>3.9950000000000002E-5</v>
+        <f t="shared" si="88"/>
+        <v>1.0872470588235297E-6</v>
       </c>
       <c r="O95" s="4">
-        <f>B95*(5.5-B95)/(L95*$B$60*5.5)</f>
-        <v>3.9949999999999995E-5</v>
+        <f t="shared" si="89"/>
+        <v>1.2729476584022039E-6</v>
       </c>
       <c r="P95">
-        <f>C95+J95/2</f>
-        <v>0.91926291793313064</v>
+        <f t="shared" si="82"/>
+        <v>1.1575657894736844</v>
       </c>
       <c r="Q95">
-        <f>D95+K95/2</f>
-        <v>1.0287257881876155</v>
+        <f t="shared" si="83"/>
+        <v>1.2861842105263159</v>
       </c>
       <c r="R95">
-        <f>E95+L95/2</f>
-        <v>1.1379444814676354</v>
+        <f t="shared" si="84"/>
+        <v>1.4148026315789475</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="B96">
-        <f t="shared" si="64"/>
-        <v>4.3</v>
+        <f t="shared" si="85"/>
+        <v>4.2</v>
       </c>
       <c r="C96" s="3">
-        <f>$B$59*(4.5/B96)*$B$61</f>
-        <v>0.88953488372093026</v>
+        <f t="shared" si="90"/>
+        <v>0.9107142857142857</v>
       </c>
       <c r="D96" s="3">
-        <f t="shared" si="68"/>
-        <v>0.98837209302325579</v>
+        <f t="shared" si="91"/>
+        <v>1.0119047619047619</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="69"/>
-        <v>1.0872093023255813</v>
+        <f t="shared" si="92"/>
+        <v>1.1130952380952381</v>
       </c>
       <c r="F96" s="1">
-        <f>1-(4.5*$B$61)/B96</f>
-        <v>0.11046511627906974</v>
+        <f t="shared" ref="F96:F106" si="93">1-(4.5*$B$61)/B96</f>
+        <v>8.9285714285714413E-2</v>
       </c>
       <c r="G96" s="1">
-        <f>1-(5*$B$61)/B96</f>
-        <v>1.1627906976744096E-2</v>
+        <f t="shared" si="78"/>
+        <v>0.9882352941176471</v>
       </c>
       <c r="H96" s="1">
-        <f>B96/(5.5*$B$61)</f>
-        <v>0.9197860962566845</v>
-      </c>
-      <c r="I96" s="7">
+        <f t="shared" si="79"/>
+        <v>0.89839572192513373</v>
+      </c>
+      <c r="I96" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J96" s="3">
-        <f t="shared" si="70"/>
-        <v>2.1152894606630376E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.27321428571428569</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" ref="K96:K104" si="71">(5)*G96/($B$60*I96)</f>
-        <v>2.474022761009382E-3</v>
+        <f t="shared" si="80"/>
+        <v>0.30357142857142855</v>
       </c>
       <c r="L96" s="3">
-        <f t="shared" si="67"/>
-        <v>4.6967800659915813E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.33392857142857141</v>
       </c>
       <c r="M96" s="4">
-        <f>B96*(4.5-B96)/(J96*$B$60*4.5)</f>
-        <v>1.806949967511373E-5</v>
+        <f t="shared" si="87"/>
+        <v>4.0993464052287562E-7</v>
       </c>
       <c r="N96" s="4">
-        <f>B96*(5-B96)/(K96*$B$60*5)</f>
-        <v>4.8665680000000387E-4</v>
+        <f t="shared" si="88"/>
+        <v>8.8545882352941164E-7</v>
       </c>
       <c r="O96" s="4">
-        <f>B96*(5.5-B96)/(L96*$B$60*5.5)</f>
-        <v>3.9949999999999995E-5</v>
-      </c>
-      <c r="P96">
-        <f>C96+J96/2</f>
-        <v>0.90011133102424545</v>
+        <f t="shared" si="89"/>
+        <v>1.1891492464754494E-6</v>
+      </c>
+      <c r="P96" s="6">
+        <f>(4.5-$B96)*F96/($B$60*M96)</f>
+        <v>2.613657069970849E-2</v>
       </c>
       <c r="Q96">
-        <f>D96+K96/2</f>
-        <v>0.98960910440376049</v>
+        <f t="shared" si="83"/>
+        <v>1.1636904761904761</v>
       </c>
       <c r="R96">
-        <f>E96+L96/2</f>
-        <v>1.1106932026555392</v>
+        <f t="shared" si="84"/>
+        <v>1.2800595238095238</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>4.6500000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="B97">
-        <f t="shared" si="64"/>
-        <v>4.6500000000000004</v>
+        <f t="shared" si="85"/>
+        <v>4.3</v>
       </c>
       <c r="C97" s="3">
-        <f>$B$59*(4.5/B97)*$B$61</f>
-        <v>0.82258064516129026</v>
+        <f t="shared" si="90"/>
+        <v>0.88953488372093026</v>
       </c>
       <c r="D97" s="3">
-        <f t="shared" si="68"/>
-        <v>0.91397849462365588</v>
+        <f t="shared" si="91"/>
+        <v>0.98837209302325579</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="69"/>
-        <v>1.0053763440860213</v>
+        <f t="shared" si="92"/>
+        <v>1.0872093023255813</v>
       </c>
       <c r="F97" s="1">
-        <f>1-(4.5*$B$61)/B97</f>
-        <v>0.17741935483870985</v>
+        <f t="shared" si="93"/>
+        <v>0.11046511627906974</v>
       </c>
       <c r="G97" s="1">
-        <f>1-(5*$B$61)/B97</f>
-        <v>8.6021505376344121E-2</v>
+        <f t="shared" ref="G97:G106" si="94">1-(5*$B$61)/B97</f>
+        <v>1.1627906976744096E-2</v>
       </c>
       <c r="H97" s="1">
-        <f>B97/(5.5*$B$61)</f>
-        <v>0.99465240641711239</v>
-      </c>
-      <c r="I97" s="7">
+        <f t="shared" si="79"/>
+        <v>0.9197860962566845</v>
+      </c>
+      <c r="I97" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J97" s="3">
-        <f t="shared" si="70"/>
-        <v>3.3973919011667846E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.26686046511627909</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="71"/>
-        <v>1.8302447952413644E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.29651162790697672</v>
       </c>
       <c r="L97" s="3">
-        <f t="shared" si="67"/>
-        <v>3.5976789168278518E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.3261627906976744</v>
       </c>
       <c r="M97" s="4">
-        <f>(4.5^2*(B97-4.5))/(J97*$B$60*B97^2)</f>
-        <v>8.2697947214076361E-6</v>
+        <f t="shared" si="87"/>
+        <v>2.8645848462841945E-7</v>
       </c>
       <c r="N97" s="4">
-        <f>B97*(5-B97)/(K97*$B$60*5)</f>
-        <v>3.5569012499999948E-5</v>
+        <f t="shared" si="88"/>
+        <v>8.1210980392156889E-7</v>
       </c>
       <c r="O97" s="4">
-        <f>B97*(5.5-B97)/(L97*$B$60*5.5)</f>
-        <v>3.9950000000000002E-5</v>
+        <f t="shared" si="89"/>
+        <v>1.1505687894992709E-6</v>
       </c>
       <c r="P97">
-        <f>C97+J97/2</f>
-        <v>0.83956760466712421</v>
+        <f t="shared" si="82"/>
+        <v>1.0229651162790698</v>
       </c>
       <c r="Q97">
-        <f>D97+K97/2</f>
-        <v>0.9231297185998627</v>
+        <f t="shared" si="83"/>
+        <v>1.1366279069767442</v>
       </c>
       <c r="R97">
-        <f>E97+L97/2</f>
-        <v>1.0233647386701605</v>
+        <f t="shared" si="84"/>
+        <v>1.2502906976744186</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>4.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="B98">
-        <f t="shared" si="64"/>
-        <v>4.7</v>
+        <f t="shared" si="85"/>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C98" s="3">
-        <f>$B$59*(4.5/B98)*$B$61</f>
-        <v>0.81382978723404253</v>
+        <f t="shared" si="90"/>
+        <v>0.82258064516129026</v>
       </c>
       <c r="D98" s="3">
-        <f t="shared" si="68"/>
-        <v>0.90425531914893609</v>
+        <f t="shared" si="91"/>
+        <v>0.91397849462365588</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="69"/>
-        <v>0.99468085106382975</v>
+        <f t="shared" si="92"/>
+        <v>1.0053763440860213</v>
       </c>
       <c r="F98" s="1">
-        <f>1-(4.5*$B$61)/B98</f>
-        <v>0.18617021276595758</v>
+        <f t="shared" si="93"/>
+        <v>0.17741935483870985</v>
       </c>
       <c r="G98" s="1">
-        <f>1-(5*$B$61)/B98</f>
-        <v>9.5744680851063912E-2</v>
+        <f t="shared" si="94"/>
+        <v>8.6021505376344121E-2</v>
       </c>
       <c r="H98" s="1">
-        <f>1-(5.5*$B$61)/B98</f>
-        <v>5.3191489361702482E-3</v>
-      </c>
-      <c r="I98" s="7">
+        <f t="shared" si="79"/>
+        <v>0.99465240641711239</v>
+      </c>
+      <c r="I98" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J98" s="3">
-        <f t="shared" si="70"/>
-        <v>3.5649615210502514E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.24677419354838706</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" si="71"/>
-        <v>2.0371208691715725E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.27419354838709675</v>
       </c>
       <c r="L98" s="3">
-        <f t="shared" ref="L98:L104" si="72">(5.5)*H98/($B$60*I98)</f>
-        <v>1.2449071978270793E-3</v>
+        <f t="shared" si="81"/>
+        <v>0.30161290322580636</v>
       </c>
       <c r="M98" s="4">
-        <f>(4.5^2*(B98-4.5))/(J98*$B$60*B98^2)</f>
-        <v>1.0285714285714286E-5</v>
+        <f t="shared" ref="M98:M106" si="95">(4.5^2*(B98-4.5))/(J98*$B$60*B98^2)</f>
+        <v>2.2770398481973488E-7</v>
       </c>
       <c r="N98" s="4">
-        <f>B98*(5-B98)/(K98*$B$60*5)</f>
-        <v>2.7686133333333295E-5</v>
+        <f t="shared" si="88"/>
+        <v>4.7484705882352891E-7</v>
       </c>
       <c r="O98" s="4">
-        <f>B98*(5.5-B98)/(L98*$B$60*5.5)</f>
-        <v>1.098292892561976E-3</v>
+        <f t="shared" si="89"/>
+        <v>9.5305785123966948E-7</v>
       </c>
       <c r="P98">
-        <f>C98+J98/2</f>
-        <v>0.83165459483929383</v>
+        <f t="shared" si="82"/>
+        <v>0.94596774193548383</v>
       </c>
       <c r="Q98">
-        <f>D98+K98/2</f>
-        <v>0.914440923494794</v>
+        <f t="shared" si="83"/>
+        <v>1.0510752688172043</v>
       </c>
       <c r="R98">
-        <f>E98+L98/2</f>
-        <v>0.9953033046627433</v>
+        <f t="shared" si="84"/>
+        <v>1.1561827956989243</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="B99">
-        <f t="shared" si="64"/>
-        <v>5</v>
+        <f t="shared" si="85"/>
+        <v>4.7</v>
       </c>
       <c r="C99" s="3">
-        <f>$B$59*(4.5/B99)*$B$61</f>
-        <v>0.76500000000000001</v>
+        <f t="shared" si="90"/>
+        <v>0.81382978723404253</v>
       </c>
       <c r="D99" s="3">
-        <f t="shared" si="68"/>
-        <v>0.85</v>
+        <f t="shared" si="91"/>
+        <v>0.90425531914893609</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="69"/>
-        <v>0.93500000000000005</v>
+        <f t="shared" si="92"/>
+        <v>0.99468085106382975</v>
       </c>
       <c r="F99" s="1">
-        <f>1-(4.5*$B$61)/B99</f>
-        <v>0.2350000000000001</v>
+        <f t="shared" si="93"/>
+        <v>0.18617021276595758</v>
       </c>
       <c r="G99" s="1">
-        <f>1-(5*$B$61)/B99</f>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="94"/>
+        <v>9.5744680851063912E-2</v>
       </c>
       <c r="H99" s="1">
-        <f>1-(5.5*$B$61)/B99</f>
-        <v>6.5000000000000058E-2</v>
-      </c>
-      <c r="I99" s="7">
+        <f t="shared" ref="H99:H106" si="96">1-(5.5*$B$61)/B99</f>
+        <v>5.3191489361702482E-3</v>
+      </c>
+      <c r="I99" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J99" s="3">
-        <f t="shared" si="70"/>
-        <v>4.5000000000000026E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.24414893617021274</v>
       </c>
       <c r="K99" s="3">
-        <f t="shared" si="71"/>
-        <v>3.1914893617021281E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.27127659574468083</v>
       </c>
       <c r="L99" s="3">
-        <f t="shared" si="72"/>
-        <v>1.5212765957446823E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.29840425531914894</v>
       </c>
       <c r="M99" s="4">
-        <f>(4.5^2*(B99-4.5))/(J99*$B$60*B99^2)</f>
-        <v>1.799999999999999E-5</v>
+        <f t="shared" si="95"/>
+        <v>3.0037546933667111E-7</v>
       </c>
       <c r="N99" s="4">
-        <f>B99*(5-B99)/(K99*$B$60*5)</f>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>4.1581176470588217E-7</v>
       </c>
       <c r="O99" s="4">
-        <f>B99*(5.5-B99)/(L99*$B$60*5.5)</f>
-        <v>5.9758423394786969E-5</v>
+        <f t="shared" si="89"/>
+        <v>9.1638956409009865E-7</v>
       </c>
       <c r="P99">
-        <f>C99+J99/2</f>
-        <v>0.78749999999999998</v>
+        <f t="shared" si="82"/>
+        <v>0.93590425531914889</v>
       </c>
       <c r="Q99">
-        <f>D99+K99/2</f>
-        <v>0.86595744680851061</v>
+        <f t="shared" si="83"/>
+        <v>1.0398936170212765</v>
       </c>
       <c r="R99">
-        <f>E99+L99/2</f>
-        <v>0.94260638297872346</v>
+        <f t="shared" si="84"/>
+        <v>1.1438829787234042</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B100">
-        <f t="shared" si="64"/>
-        <v>6</v>
+        <f t="shared" si="85"/>
+        <v>5</v>
       </c>
       <c r="C100" s="3">
-        <f>$B$59*(4.5/B100)*$B$61</f>
-        <v>0.63749999999999996</v>
+        <f t="shared" si="90"/>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D100" s="3">
-        <f t="shared" si="68"/>
-        <v>0.70833333333333337</v>
+        <f t="shared" si="91"/>
+        <v>0.85</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="69"/>
-        <v>0.77916666666666656</v>
+        <f t="shared" si="92"/>
+        <v>0.93500000000000005</v>
       </c>
       <c r="F100" s="1">
-        <f>1-(4.5*$B$61)/B100</f>
-        <v>0.36250000000000004</v>
+        <f t="shared" si="93"/>
+        <v>0.2350000000000001</v>
       </c>
       <c r="G100" s="1">
-        <f>1-(5*$B$61)/B100</f>
-        <v>0.29166666666666663</v>
+        <f t="shared" si="94"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="H100" s="1">
-        <f>1-(5.5*$B$61)/B100</f>
-        <v>0.22083333333333333</v>
-      </c>
-      <c r="I100" s="7">
+        <f t="shared" si="96"/>
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="I100" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" si="70"/>
-        <v>6.9414893617021287E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.22949999999999998</v>
       </c>
       <c r="K100" s="3">
-        <f t="shared" si="71"/>
-        <v>6.2056737588652468E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.255</v>
       </c>
       <c r="L100" s="3">
-        <f t="shared" si="72"/>
-        <v>5.1684397163120566E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.28050000000000003</v>
       </c>
       <c r="M100" s="4">
-        <f>(4.5^2*(B100-4.5))/(J100*$B$60*B100^2)</f>
-        <v>2.4310344827586206E-5</v>
+        <f t="shared" si="95"/>
+        <v>7.0588235294117645E-7</v>
       </c>
       <c r="N100" s="4">
-        <f>(5^2*(B100-5))/(K100*$B$60*B100^2)</f>
-        <v>2.2380952380952387E-5</v>
+        <f t="shared" si="88"/>
+        <v>0</v>
       </c>
       <c r="O100" s="4">
-        <f>(5^2*(B100-5))/(L100*$B$60*B100^2)</f>
-        <v>2.687249857061178E-5</v>
+        <f t="shared" si="89"/>
+        <v>6.4819316156214545E-7</v>
       </c>
       <c r="P100">
-        <f>C100+J100/2</f>
-        <v>0.67220744680851063</v>
+        <f t="shared" si="82"/>
+        <v>0.87975000000000003</v>
       </c>
       <c r="Q100">
-        <f>D100+K100/2</f>
-        <v>0.73936170212765961</v>
+        <f t="shared" si="83"/>
+        <v>0.97750000000000004</v>
       </c>
       <c r="R100">
-        <f>E100+L100/2</f>
-        <v>0.80500886524822679</v>
+        <f t="shared" si="84"/>
+        <v>1.07525</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B101">
-        <f t="shared" si="64"/>
-        <v>8</v>
+        <f t="shared" si="85"/>
+        <v>6</v>
       </c>
       <c r="C101" s="3">
-        <f>$B$59*(4.5/B101)*$B$61</f>
-        <v>0.47812499999999997</v>
+        <f t="shared" si="90"/>
+        <v>0.63749999999999996</v>
       </c>
       <c r="D101" s="3">
-        <f t="shared" si="68"/>
-        <v>0.53125</v>
+        <f t="shared" si="91"/>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E101" s="3">
-        <f t="shared" si="69"/>
-        <v>0.58437499999999998</v>
+        <f t="shared" si="92"/>
+        <v>0.77916666666666656</v>
       </c>
       <c r="F101" s="1">
-        <f>1-(4.5*$B$61)/B101</f>
-        <v>0.52187500000000009</v>
+        <f t="shared" si="93"/>
+        <v>0.36250000000000004</v>
       </c>
       <c r="G101" s="1">
-        <f>1-(5*$B$61)/B101</f>
-        <v>0.46875</v>
+        <f t="shared" si="94"/>
+        <v>0.29166666666666663</v>
       </c>
       <c r="H101" s="1">
-        <f>1-(5.5*$B$61)/B101</f>
-        <v>0.41562500000000002</v>
-      </c>
-      <c r="I101" s="7">
+        <f t="shared" si="96"/>
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="I101" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J101" s="3">
-        <f t="shared" si="70"/>
-        <v>9.9933510638297876E-2</v>
+        <f t="shared" si="86"/>
+        <v>0.19124999999999998</v>
       </c>
       <c r="K101" s="3">
-        <f t="shared" si="71"/>
-        <v>9.9734042553191488E-2</v>
+        <f t="shared" si="80"/>
+        <v>0.21249999999999999</v>
       </c>
       <c r="L101" s="3">
-        <f t="shared" si="72"/>
-        <v>9.727393617021278E-2</v>
+        <f t="shared" si="81"/>
+        <v>0.23374999999999996</v>
       </c>
       <c r="M101" s="4">
-        <f>(4.5^2*(B101-4.5))/(J101*$B$60*B101^2)</f>
-        <v>2.2163173652694611E-5</v>
+        <f t="shared" si="95"/>
+        <v>1.7647058823529417E-6</v>
       </c>
       <c r="N101" s="4">
-        <f>(5^2*(B101-5))/(K101*$B$60*B101^2)</f>
-        <v>2.3500000000000002E-5</v>
+        <f t="shared" ref="N101:N106" si="97">(5^2*(B101-5))/(K101*$B$60*B101^2)</f>
+        <v>1.3071895424836602E-6</v>
       </c>
       <c r="O101" s="4">
-        <f>(5^2*(B101-5))/(L101*$B$60*B101^2)</f>
-        <v>2.4094326725905669E-5</v>
+        <f t="shared" ref="O101:O106" si="98">(5^2*(B101-5))/(L101*$B$60*B101^2)</f>
+        <v>1.1883541295306004E-6</v>
       </c>
       <c r="P101">
-        <f>C101+J101/2</f>
-        <v>0.52809175531914887</v>
+        <f t="shared" si="82"/>
+        <v>0.73312499999999992</v>
       </c>
       <c r="Q101">
-        <f>D101+K101/2</f>
-        <v>0.5811170212765957</v>
+        <f t="shared" si="83"/>
+        <v>0.81458333333333333</v>
       </c>
       <c r="R101">
-        <f>E101+L101/2</f>
-        <v>0.6330119680851064</v>
+        <f t="shared" si="84"/>
+        <v>0.89604166666666651</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B102">
-        <f t="shared" si="64"/>
-        <v>10</v>
+        <f t="shared" si="85"/>
+        <v>8</v>
       </c>
       <c r="C102" s="3">
-        <f>$B$59*(4.5/B102)*$B$61</f>
-        <v>0.38250000000000001</v>
+        <f t="shared" si="90"/>
+        <v>0.47812499999999997</v>
       </c>
       <c r="D102" s="3">
-        <f t="shared" si="68"/>
-        <v>0.42499999999999999</v>
+        <f t="shared" si="91"/>
+        <v>0.53125</v>
       </c>
       <c r="E102" s="3">
-        <f t="shared" si="69"/>
-        <v>0.46750000000000003</v>
+        <f t="shared" si="92"/>
+        <v>0.58437499999999998</v>
       </c>
       <c r="F102" s="1">
-        <f>1-(4.5*$B$61)/B102</f>
-        <v>0.61750000000000005</v>
+        <f t="shared" si="93"/>
+        <v>0.52187500000000009</v>
       </c>
       <c r="G102" s="1">
-        <f>1-(5*$B$61)/B102</f>
-        <v>0.57499999999999996</v>
+        <f t="shared" si="94"/>
+        <v>0.46875</v>
       </c>
       <c r="H102" s="1">
-        <f>1-(5.5*$B$61)/B102</f>
-        <v>0.53249999999999997</v>
-      </c>
-      <c r="I102" s="7">
+        <f t="shared" si="96"/>
+        <v>0.41562500000000002</v>
+      </c>
+      <c r="I102" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J102" s="3">
-        <f t="shared" si="70"/>
-        <v>0.11824468085106384</v>
+        <f t="shared" si="86"/>
+        <v>0.1434375</v>
       </c>
       <c r="K102" s="3">
-        <f t="shared" si="71"/>
-        <v>0.12234042553191489</v>
+        <f t="shared" si="80"/>
+        <v>0.15937499999999999</v>
       </c>
       <c r="L102" s="3">
-        <f t="shared" si="72"/>
-        <v>0.12462765957446809</v>
+        <f t="shared" si="81"/>
+        <v>0.17531249999999998</v>
       </c>
       <c r="M102" s="4">
-        <f>(4.5^2*(B102-4.5))/(J102*$B$60*B102^2)</f>
-        <v>1.8838056680161942E-5</v>
+        <f t="shared" si="95"/>
+        <v>3.0882352941176472E-6</v>
       </c>
       <c r="N102" s="4">
-        <f>(5^2*(B102-5))/(K102*$B$60*B102^2)</f>
-        <v>2.0434782608695654E-5</v>
+        <f t="shared" si="97"/>
+        <v>2.9411764705882355E-6</v>
       </c>
       <c r="O102" s="4">
-        <f>(5^2*(B102-5))/(L102*$B$60*B102^2)</f>
-        <v>2.0059752454118652E-5</v>
+        <f t="shared" si="98"/>
+        <v>2.6737967914438508E-6</v>
       </c>
       <c r="P102">
-        <f>C102+J102/2</f>
-        <v>0.44162234042553195</v>
+        <f t="shared" si="82"/>
+        <v>0.54984374999999996</v>
       </c>
       <c r="Q102">
-        <f>D102+K102/2</f>
-        <v>0.48617021276595745</v>
+        <f t="shared" si="83"/>
+        <v>0.61093750000000002</v>
       </c>
       <c r="R102">
-        <f>E102+L102/2</f>
-        <v>0.52981382978723413</v>
+        <f t="shared" si="84"/>
+        <v>0.67203124999999997</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B103">
-        <f t="shared" si="64"/>
-        <v>12</v>
+        <f t="shared" si="85"/>
+        <v>10</v>
       </c>
       <c r="C103" s="3">
-        <f>$B$59*(4.5/B103)*$B$61</f>
-        <v>0.31874999999999998</v>
+        <f t="shared" si="90"/>
+        <v>0.38250000000000001</v>
       </c>
       <c r="D103" s="3">
-        <f t="shared" si="68"/>
-        <v>0.35416666666666669</v>
+        <f t="shared" si="91"/>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E103" s="3">
-        <f t="shared" si="69"/>
-        <v>0.38958333333333328</v>
+        <f t="shared" si="92"/>
+        <v>0.46750000000000003</v>
       </c>
       <c r="F103" s="1">
-        <f>1-(4.5*$B$61)/B103</f>
-        <v>0.68125000000000002</v>
+        <f t="shared" si="93"/>
+        <v>0.61750000000000005</v>
       </c>
       <c r="G103" s="1">
-        <f>1-(5*$B$61)/B103</f>
-        <v>0.64583333333333326</v>
+        <f t="shared" si="94"/>
+        <v>0.57499999999999996</v>
       </c>
       <c r="H103" s="1">
-        <f>1-(5.5*$B$61)/B103</f>
-        <v>0.61041666666666661</v>
-      </c>
-      <c r="I103" s="7">
+        <f t="shared" si="96"/>
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="I103" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="70"/>
-        <v>0.13045212765957448</v>
+        <f t="shared" si="86"/>
+        <v>0.11474999999999999</v>
       </c>
       <c r="K103" s="3">
-        <f t="shared" si="71"/>
-        <v>0.13741134751773046</v>
+        <f t="shared" si="80"/>
+        <v>0.1275</v>
       </c>
       <c r="L103" s="3">
-        <f>(5.5)*H103/($B$60*I103)</f>
-        <v>0.14286347517730494</v>
+        <f t="shared" si="81"/>
+        <v>0.14025000000000001</v>
       </c>
       <c r="M103" s="4">
-        <f>(4.5^2*(B103-4.5))/(J103*$B$60*B103^2)</f>
-        <v>1.6169724770642201E-5</v>
+        <f t="shared" si="95"/>
+        <v>3.8823529411764706E-6</v>
       </c>
       <c r="N103" s="4">
-        <f>(5^2*(B103-5))/(K103*$B$60*B103^2)</f>
-        <v>1.7688172043010759E-5</v>
+        <f t="shared" si="97"/>
+        <v>3.9215686274509803E-6</v>
       </c>
       <c r="O103" s="4">
-        <f>(5^2*(B103-5))/(L103*$B$60*B103^2)</f>
-        <v>1.7013134760575038E-5</v>
+        <f t="shared" si="98"/>
+        <v>3.5650623885917998E-6</v>
       </c>
       <c r="P103">
-        <f>C103+J103/2</f>
-        <v>0.38397606382978722</v>
+        <f t="shared" si="82"/>
+        <v>0.43987500000000002</v>
       </c>
       <c r="Q103">
-        <f>D103+K103/2</f>
-        <v>0.4228723404255319</v>
+        <f t="shared" si="83"/>
+        <v>0.48875000000000002</v>
       </c>
       <c r="R103">
-        <f>E103+L103/2</f>
-        <v>0.46101507092198574</v>
+        <f t="shared" si="84"/>
+        <v>0.53762500000000002</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B104">
-        <f t="shared" si="64"/>
-        <v>15</v>
+        <f t="shared" si="85"/>
+        <v>12</v>
       </c>
       <c r="C104" s="3">
-        <f>$B$59*(4.5/B104)*$B$61</f>
-        <v>0.255</v>
+        <f t="shared" si="90"/>
+        <v>0.31874999999999998</v>
       </c>
       <c r="D104" s="3">
-        <f t="shared" si="68"/>
-        <v>0.28333333333333333</v>
+        <f t="shared" si="91"/>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E104" s="3">
-        <f t="shared" si="69"/>
-        <v>0.31166666666666665</v>
+        <f t="shared" si="92"/>
+        <v>0.38958333333333328</v>
       </c>
       <c r="F104" s="1">
-        <f>1-(4.5*$B$61)/B104</f>
-        <v>0.745</v>
+        <f t="shared" si="93"/>
+        <v>0.68125000000000002</v>
       </c>
       <c r="G104" s="1">
-        <f>1-(5*$B$61)/B104</f>
-        <v>0.71666666666666667</v>
+        <f t="shared" si="94"/>
+        <v>0.64583333333333326</v>
       </c>
       <c r="H104" s="1">
-        <f>1-(5.5*$B$61)/B104</f>
-        <v>0.68833333333333335</v>
-      </c>
-      <c r="I104" s="7">
+        <f t="shared" si="96"/>
+        <v>0.61041666666666661</v>
+      </c>
+      <c r="I104" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J104" s="3">
-        <f t="shared" si="70"/>
-        <v>0.14265957446808511</v>
+        <f t="shared" si="86"/>
+        <v>9.5624999999999988E-2</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" si="71"/>
-        <v>0.1524822695035461</v>
+        <f t="shared" si="80"/>
+        <v>0.10625</v>
       </c>
       <c r="L104" s="3">
-        <f t="shared" si="72"/>
-        <v>0.16109929078014185</v>
+        <f t="shared" si="81"/>
+        <v>0.11687499999999998</v>
       </c>
       <c r="M104" s="4">
-        <f>(4.5^2*(B104-4.5))/(J104*$B$60*B104^2)</f>
-        <v>1.3248322147651007E-5</v>
+        <f t="shared" si="95"/>
+        <v>4.4117647058823542E-6</v>
       </c>
       <c r="N104" s="4">
-        <f>(5^2*(B104-5))/(K104*$B$60*B104^2)</f>
-        <v>1.4573643410852714E-5</v>
+        <f t="shared" si="97"/>
+        <v>4.5751633986928105E-6</v>
       </c>
       <c r="O104" s="4">
-        <f>(5^2*(B104-5))/(L104*$B$60*B104^2)</f>
-        <v>1.3794115489030745E-5</v>
+        <f t="shared" si="98"/>
+        <v>4.1592394533571012E-6</v>
       </c>
       <c r="P104">
-        <f>C104+J104/2</f>
-        <v>0.32632978723404255</v>
+        <f t="shared" si="82"/>
+        <v>0.36656249999999996</v>
       </c>
       <c r="Q104">
-        <f>D104+K104/2</f>
-        <v>0.3595744680851064</v>
+        <f t="shared" si="83"/>
+        <v>0.40729166666666666</v>
       </c>
       <c r="R104">
-        <f>E104+L104/2</f>
-        <v>0.39221631205673757</v>
+        <f t="shared" si="84"/>
+        <v>0.44802083333333326</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B105">
-        <f t="shared" si="64"/>
-        <v>20</v>
+        <f t="shared" si="85"/>
+        <v>15</v>
       </c>
       <c r="C105" s="3">
-        <f>$B$59*(4.5/B105)*$B$61</f>
-        <v>0.19125</v>
+        <f t="shared" si="90"/>
+        <v>0.255</v>
       </c>
       <c r="D105" s="3">
-        <f t="shared" si="68"/>
-        <v>0.21249999999999999</v>
+        <f t="shared" si="91"/>
+        <v>0.28333333333333333</v>
       </c>
       <c r="E105" s="3">
-        <f t="shared" si="69"/>
-        <v>0.23375000000000001</v>
+        <f t="shared" si="92"/>
+        <v>0.31166666666666665</v>
       </c>
       <c r="F105" s="1">
-        <f>1-(4.5*$B$61)/B105</f>
-        <v>0.80875000000000008</v>
+        <f t="shared" si="93"/>
+        <v>0.745</v>
       </c>
       <c r="G105" s="1">
-        <f>1-(5*$B$61)/B105</f>
-        <v>0.78749999999999998</v>
+        <f t="shared" si="94"/>
+        <v>0.71666666666666667</v>
       </c>
       <c r="H105" s="1">
-        <f>1-(5.5*$B$61)/B105</f>
-        <v>0.76624999999999999</v>
-      </c>
-      <c r="I105" s="7">
+        <f t="shared" si="96"/>
+        <v>0.68833333333333335</v>
+      </c>
+      <c r="I105" s="6">
         <v>4.6999999999999997E-5</v>
       </c>
       <c r="J105" s="3">
-        <f>(4.5)*F105/($B$60*I105)</f>
-        <v>0.15486702127659577</v>
+        <f t="shared" si="86"/>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K105" s="3">
-        <f>(5)*G105/($B$60*I105)</f>
-        <v>0.16755319148936171</v>
+        <f t="shared" si="80"/>
+        <v>8.4999999999999992E-2</v>
       </c>
       <c r="L105" s="3">
-        <f>(5.5)*H105/($B$60*I105)</f>
-        <v>0.1793351063829787</v>
+        <f t="shared" si="81"/>
+        <v>9.3499999999999986E-2</v>
       </c>
       <c r="M105" s="4">
         <f>(4.5^2*(B105-4.5))/(J105*$B$60*B105^2)</f>
-        <v>1.0133693972179287E-5</v>
+        <v>4.9411764705882354E-6</v>
       </c>
       <c r="N105" s="4">
-        <f>(5^2*(B105-5))/(K105*$B$60*B105^2)</f>
-        <v>1.1190476190476188E-5</v>
+        <f t="shared" si="97"/>
+        <v>5.2287581699346416E-6</v>
       </c>
       <c r="O105" s="4">
-        <f>(5^2*(B105-5))/(L105*$B$60*B105^2)</f>
-        <v>1.0455286964259232E-5</v>
+        <f t="shared" si="98"/>
+        <v>4.7534165181224014E-6</v>
       </c>
       <c r="P105">
-        <f>C105+J105/2</f>
-        <v>0.26868351063829787</v>
+        <f t="shared" si="82"/>
+        <v>0.29325000000000001</v>
       </c>
       <c r="Q105">
-        <f>D105+K105/2</f>
-        <v>0.29627659574468085</v>
+        <f t="shared" si="83"/>
+        <v>0.32583333333333331</v>
       </c>
       <c r="R105">
-        <f>E105+L105/2</f>
-        <v>0.32341755319148935</v>
+        <f t="shared" si="84"/>
+        <v>0.35841666666666666</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F107" s="4"/>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>20</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="85"/>
+        <v>20</v>
+      </c>
+      <c r="C106" s="3">
+        <f t="shared" si="90"/>
+        <v>0.19125</v>
+      </c>
+      <c r="D106" s="3">
+        <f t="shared" si="91"/>
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="92"/>
+        <v>0.23375000000000001</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="93"/>
+        <v>0.80875000000000008</v>
+      </c>
+      <c r="G106" s="1">
+        <f t="shared" si="94"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H106" s="1">
+        <f t="shared" si="96"/>
+        <v>0.76624999999999999</v>
+      </c>
+      <c r="I106" s="6">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="J106" s="3">
+        <f t="shared" si="86"/>
+        <v>5.7374999999999995E-2</v>
+      </c>
+      <c r="K106" s="3">
+        <f t="shared" si="80"/>
+        <v>6.3750000000000001E-2</v>
+      </c>
+      <c r="L106" s="3">
+        <f t="shared" si="81"/>
+        <v>7.0125000000000007E-2</v>
+      </c>
+      <c r="M106" s="4">
+        <f t="shared" si="95"/>
+        <v>5.4705882352941173E-6</v>
+      </c>
+      <c r="N106" s="4">
+        <f t="shared" si="97"/>
+        <v>5.8823529411764709E-6</v>
+      </c>
+      <c r="O106" s="4">
+        <f t="shared" si="98"/>
+        <v>5.3475935828876991E-6</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="82"/>
+        <v>0.21993750000000001</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="83"/>
+        <v>0.24437500000000001</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="84"/>
+        <v>0.26881250000000001</v>
+      </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F108" s="4"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>49</v>
-      </c>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F110" s="4"/>
+    <row r="110" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F111" s="4"/>
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <f>A111</f>
+        <v>0</v>
+      </c>
+      <c r="C111" s="3" t="e">
+        <f>$B$59*(4.5/B111)*$B$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D111" s="3" t="e">
+        <f>$B$59*(5/C111)*$B$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E111" s="3" t="e">
+        <f>$B$59*(5.5/D111)*$B$61</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F111" s="1">
+        <f t="shared" ref="F111:F118" si="99">B111/(4.5*$B$61)</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <f t="shared" ref="G111:G119" si="100">B111/(5*$B$61)</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <f t="shared" ref="H111:H121" si="101">B111/(5.5*$B$61)</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J111" s="3">
+        <f>(4.5-$B111)*F111/($B$60*$I111)</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="3">
+        <f>(5-$B111)*G111/($B$60*$I111)</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="3">
+        <f>(5.5-$B111)*H111/($B$60*$I111)</f>
+        <v>0</v>
+      </c>
+      <c r="M111" t="e">
+        <f>$C111+J111/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N111" t="e">
+        <f>$C111+K111/2</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O111" t="e">
+        <f>$C111+L111/2</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F112" s="4"/>
+      <c r="A112">
+        <v>0.8</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ref="B112:B129" si="102">A112</f>
+        <v>0.8</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F112" s="1">
+        <f t="shared" si="99"/>
+        <v>0.20915032679738566</v>
+      </c>
+      <c r="G112" s="1">
+        <f t="shared" si="100"/>
+        <v>0.18823529411764706</v>
+      </c>
+      <c r="H112" s="1">
+        <f t="shared" si="101"/>
+        <v>0.17112299465240643</v>
+      </c>
+      <c r="I112" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J112" s="3">
+        <f>(4.5-$B112)*F112/($B$60*$I112)</f>
+        <v>6.5860102906410797E-2</v>
+      </c>
+      <c r="K112" s="3">
+        <f>(5-$B112)*G112/($B$60*$I112)</f>
+        <v>6.7284105131414279E-2</v>
+      </c>
+      <c r="L112" s="3">
+        <f>(5.5-$B112)*H112/($B$60*$I112)</f>
+        <v>6.8449197860962582E-2</v>
+      </c>
+      <c r="M112" s="3">
+        <f>C112+J112/2</f>
+        <v>0.98293005145320533</v>
+      </c>
+      <c r="N112" s="3">
+        <f>D112+K112/2</f>
+        <v>0.98364205256570714</v>
+      </c>
+      <c r="O112" s="3">
+        <f>E112+L112/2</f>
+        <v>0.9842245989304812</v>
+      </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="5"/>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1.6</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="102"/>
+        <v>1.6</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F113" s="1">
+        <f t="shared" si="99"/>
+        <v>0.41830065359477131</v>
+      </c>
+      <c r="G113" s="1">
+        <f t="shared" si="100"/>
+        <v>0.37647058823529411</v>
+      </c>
+      <c r="H113" s="1">
+        <f t="shared" si="101"/>
+        <v>0.34224598930481287</v>
+      </c>
+      <c r="I113" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J113" s="3">
+        <f>(4.5-$B113)*F113/($B$60*$I113)</f>
+        <v>0.10324016131275206</v>
+      </c>
+      <c r="K113" s="3">
+        <f>(5-$B113)*G113/($B$60*$I113)</f>
+        <v>0.10893617021276596</v>
+      </c>
+      <c r="L113" s="3">
+        <f>(5.5-$B113)*H113/($B$60*$I113)</f>
+        <v>0.11359654113095917</v>
+      </c>
+      <c r="M113" s="3">
+        <f>C113+J113/2</f>
+        <v>0.95162008065637604</v>
+      </c>
+      <c r="N113" s="3">
+        <f>D113+K113/2</f>
+        <v>0.95446808510638304</v>
+      </c>
+      <c r="O113" s="3">
+        <f>E113+L113/2</f>
+        <v>0.95679827056547961</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1.9</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="102"/>
+        <v>1.9</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E114" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F114" s="1">
+        <f t="shared" si="99"/>
+        <v>0.49673202614379086</v>
+      </c>
+      <c r="G114" s="1">
+        <f t="shared" si="100"/>
+        <v>0.44705882352941173</v>
+      </c>
+      <c r="H114" s="1">
+        <f t="shared" si="101"/>
+        <v>0.40641711229946526</v>
+      </c>
+      <c r="I114" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J114" s="3">
+        <f>(4.5-$B114)*F114/($B$60*$I114)</f>
+        <v>0.10991517174245585</v>
+      </c>
+      <c r="K114" s="3">
+        <f>(5-$B114)*G114/($B$60*$I114)</f>
+        <v>0.11794743429286607</v>
+      </c>
+      <c r="L114" s="3">
+        <f>(5.5-$B114)*H114/($B$60*$I114)</f>
+        <v>0.12451928547047446</v>
+      </c>
+      <c r="M114" s="3">
+        <f>C114+J114/2</f>
+        <v>0.95495758587122792</v>
+      </c>
+      <c r="N114" s="3">
+        <f>D114+K114/2</f>
+        <v>0.95897371714643309</v>
+      </c>
+      <c r="O114" s="3">
+        <f>E114+L114/2</f>
+        <v>0.96225964273523723</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="102"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C115" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E115" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F115" s="1">
+        <f t="shared" si="99"/>
+        <v>0.57516339869281052</v>
+      </c>
+      <c r="G115" s="1">
+        <f t="shared" si="100"/>
+        <v>0.51764705882352946</v>
+      </c>
+      <c r="H115" s="1">
+        <f t="shared" si="101"/>
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="I115" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J115" s="3">
+        <f>(4.5-$B115)*F115/($B$60*$I115)</f>
+        <v>0.11258517591433737</v>
+      </c>
+      <c r="K115" s="3">
+        <f>(5-$B115)*G115/($B$60*$I115)</f>
+        <v>0.12335419274092616</v>
+      </c>
+      <c r="L115" s="3">
+        <f>(5.5-$B115)*H115/($B$60*$I115)</f>
+        <v>0.13216520650813518</v>
+      </c>
+      <c r="M115" s="3">
+        <f>C115+J115/2</f>
+        <v>0.95629258795716865</v>
+      </c>
+      <c r="N115" s="3">
+        <f>D115+K115/2</f>
+        <v>0.96167709637046306</v>
+      </c>
+      <c r="O115" s="3">
+        <f>E115+L115/2</f>
+        <v>0.96608260325406758</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2.5</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="102"/>
+        <v>2.5</v>
+      </c>
+      <c r="C116" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E116" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F116" s="1">
+        <f t="shared" si="99"/>
+        <v>0.65359477124183007</v>
+      </c>
+      <c r="G116" s="1">
+        <f t="shared" si="100"/>
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="H116" s="1">
+        <f t="shared" si="101"/>
+        <v>0.53475935828877008</v>
+      </c>
+      <c r="I116" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J116" s="3">
+        <f>(4.5-$B116)*F116/($B$60*$I116)</f>
+        <v>0.11125017382839661</v>
+      </c>
+      <c r="K116" s="3">
+        <f>(5-$B116)*G116/($B$60*$I116)</f>
+        <v>0.12515644555694619</v>
+      </c>
+      <c r="L116" s="3">
+        <f>(5.5-$B116)*H116/($B$60*$I116)</f>
+        <v>0.13653430424394131</v>
+      </c>
+      <c r="M116" s="3">
+        <f>C116+J116/2</f>
+        <v>0.95562508691419834</v>
+      </c>
+      <c r="N116" s="3">
+        <f>D116+K116/2</f>
+        <v>0.96257822277847316</v>
+      </c>
+      <c r="O116" s="3">
+        <f>E116+L116/2</f>
+        <v>0.96826715212197068</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="102"/>
+        <v>3</v>
+      </c>
+      <c r="C117" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E117" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F117" s="1">
+        <f t="shared" si="99"/>
+        <v>0.78431372549019618</v>
+      </c>
+      <c r="G117" s="1">
+        <f t="shared" si="100"/>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="H117" s="1">
+        <f t="shared" si="101"/>
+        <v>0.64171122994652408</v>
+      </c>
+      <c r="I117" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J117" s="3">
+        <f>(4.5-$B117)*F117/($B$60*$I117)</f>
+        <v>0.10012515644555697</v>
+      </c>
+      <c r="K117" s="3">
+        <f>(5-$B117)*G117/($B$60*$I117)</f>
+        <v>0.12015018773466835</v>
+      </c>
+      <c r="L117" s="3">
+        <f>(5.5-$B117)*H117/($B$60*$I117)</f>
+        <v>0.13653430424394128</v>
+      </c>
+      <c r="M117" s="3">
+        <f>C117+J117/2</f>
+        <v>0.95006257822277851</v>
+      </c>
+      <c r="N117" s="3">
+        <f>D117+K117/2</f>
+        <v>0.96007509386733414</v>
+      </c>
+      <c r="O117" s="3">
+        <f>E117+L117/2</f>
+        <v>0.96826715212197068</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3.8</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="102"/>
+        <v>3.8</v>
+      </c>
+      <c r="C118" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E118" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F118" s="1">
+        <f t="shared" si="99"/>
+        <v>0.99346405228758172</v>
+      </c>
+      <c r="G118" s="1">
+        <f t="shared" si="100"/>
+        <v>0.89411764705882346</v>
+      </c>
+      <c r="H118" s="1">
+        <f t="shared" si="101"/>
+        <v>0.81283422459893051</v>
+      </c>
+      <c r="I118" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J118" s="3">
+        <f>(4.5-$B118)*F118/($B$60*$I118)</f>
+        <v>5.9185092476707009E-2</v>
+      </c>
+      <c r="K118" s="3">
+        <f>(5-$B118)*G118/($B$60*$I118)</f>
+        <v>9.1314142678347934E-2</v>
+      </c>
+      <c r="L118" s="3">
+        <f>(5.5-$B118)*H118/($B$60*$I118)</f>
+        <v>0.11760154738878145</v>
+      </c>
+      <c r="M118" s="3">
+        <f>C118+J118/2</f>
+        <v>0.97959254623835346</v>
+      </c>
+      <c r="N118" s="3">
+        <f>D118+K118/2</f>
+        <v>0.99565707133917392</v>
+      </c>
+      <c r="O118" s="3">
+        <f>E118+L118/2</f>
+        <v>0.95880077369439076</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>4.2</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="102"/>
+        <v>4.2</v>
+      </c>
+      <c r="C119" s="3">
+        <f t="shared" ref="C117:C129" si="103">$B$59*(4.5/B119)*$B$61</f>
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F119" s="1">
+        <f t="shared" ref="F119:F129" si="104">1-(4.5*$B$61)/B119</f>
+        <v>8.9285714285714413E-2</v>
+      </c>
+      <c r="G119" s="1">
+        <f t="shared" si="100"/>
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="H119" s="1">
+        <f t="shared" si="101"/>
+        <v>0.89839572192513373</v>
+      </c>
+      <c r="I119" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J119" s="3">
+        <f>4.5*F119/($B$60*$I119)</f>
+        <v>3.4194528875379986E-2</v>
+      </c>
+      <c r="K119" s="3">
+        <f>(5-$B119)*G119/($B$60*$I119)</f>
+        <v>6.7284105131414251E-2</v>
+      </c>
+      <c r="L119" s="3">
+        <f>(5.5-$B119)*H119/($B$60*$I119)</f>
+        <v>9.9396973489589244E-2</v>
+      </c>
+      <c r="M119" s="3">
+        <f>$C119+J119/2</f>
+        <v>0.92781155015197569</v>
+      </c>
+      <c r="N119" s="3">
+        <f>D119+K119/2</f>
+        <v>0.98364205256570703</v>
+      </c>
+      <c r="O119" s="3">
+        <f>E119+L119/2</f>
+        <v>0.99969848674479456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4.3</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="102"/>
+        <v>4.3</v>
+      </c>
+      <c r="C120" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E120" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F120" s="1">
+        <f t="shared" si="104"/>
+        <v>0.11046511627906974</v>
+      </c>
+      <c r="G120" s="1">
+        <f t="shared" ref="G120:G129" si="105">1-(5*$B$61)/B120</f>
+        <v>1.1627906976744096E-2</v>
+      </c>
+      <c r="H120" s="1">
+        <f t="shared" si="101"/>
+        <v>0.9197860962566845</v>
+      </c>
+      <c r="I120" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J120" s="3">
+        <f>4.5*F120/($B$60*$I120)</f>
+        <v>4.2305789213260753E-2</v>
+      </c>
+      <c r="K120" s="3">
+        <f>4.5*G120/($B$60*$I120)</f>
+        <v>4.4532409698168881E-3</v>
+      </c>
+      <c r="L120" s="3">
+        <f>(5.5-$B120)*H120/($B$60*$I120)</f>
+        <v>9.3935601319831627E-2</v>
+      </c>
+      <c r="M120" s="3">
+        <f>(C120/(1-F120))+J120/2</f>
+        <v>0.97670845016218588</v>
+      </c>
+      <c r="N120" s="3">
+        <f>(D120/(1-G120))+K120/2</f>
+        <v>0.99375603224961417</v>
+      </c>
+      <c r="O120" s="3">
+        <f>E120+L120/2</f>
+        <v>0.99696780065991575</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="102"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C121" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F121" s="1">
+        <f t="shared" si="104"/>
+        <v>0.17741935483870985</v>
+      </c>
+      <c r="G121" s="1">
+        <f t="shared" si="105"/>
+        <v>8.6021505376344121E-2</v>
+      </c>
+      <c r="H121" s="1">
+        <f t="shared" si="101"/>
+        <v>0.99465240641711239</v>
+      </c>
+      <c r="I121" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J121" s="3">
+        <f>4.5*F121/($B$60*$I121)</f>
+        <v>6.7947838023335691E-2</v>
+      </c>
+      <c r="K121" s="3">
+        <f>4.5*G121/($B$60*$I121)</f>
+        <v>3.294440631434456E-2</v>
+      </c>
+      <c r="L121" s="3">
+        <f>4.5*H121/($B$60*$I121)</f>
+        <v>0.38093070884059627</v>
+      </c>
+      <c r="M121" s="3">
+        <f>(C121/(1-F121))+J121/2</f>
+        <v>0.94573862489402094</v>
+      </c>
+      <c r="N121" s="3">
+        <f>(D121/(1-G121))+K121/2</f>
+        <v>0.94647220315717229</v>
+      </c>
+      <c r="O121" s="3">
+        <f>E121+L121/2</f>
+        <v>0.99046535442029815</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4.7</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="102"/>
+        <v>4.7</v>
+      </c>
+      <c r="C122" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F122" s="1">
+        <f t="shared" si="104"/>
+        <v>0.18617021276595758</v>
+      </c>
+      <c r="G122" s="1">
+        <f t="shared" si="105"/>
+        <v>9.5744680851063912E-2</v>
+      </c>
+      <c r="H122" s="1">
+        <f t="shared" ref="H122:H129" si="106">1-(5.5*$B$61)/B122</f>
+        <v>5.3191489361702482E-3</v>
+      </c>
+      <c r="I122" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J122" s="3">
+        <f>4.5*F122/($B$60*$I122)</f>
+        <v>7.1299230421005028E-2</v>
+      </c>
+      <c r="K122" s="3">
+        <f>4.5*G122/($B$60*$I122)</f>
+        <v>3.6668175645088306E-2</v>
+      </c>
+      <c r="L122" s="3">
+        <f>4.5*H122/($B$60*$I122)</f>
+        <v>2.0371208691715844E-3</v>
+      </c>
+      <c r="M122" s="3">
+        <f>(C122/(1-F122))+J122/2</f>
+        <v>0.95721824266148303</v>
+      </c>
+      <c r="N122" s="3">
+        <f>(D122/(1-G122))+K122/2</f>
+        <v>0.95833408782254426</v>
+      </c>
+      <c r="O122" s="3">
+        <f>(E122/(1-H122))+L122/2</f>
+        <v>0.95609877433832913</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="102"/>
+        <v>5</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F123" s="1">
+        <f t="shared" si="104"/>
+        <v>0.2350000000000001</v>
+      </c>
+      <c r="G123" s="1">
+        <f t="shared" si="105"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="H123" s="1">
+        <f t="shared" si="106"/>
+        <v>6.5000000000000058E-2</v>
+      </c>
+      <c r="I123" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J123" s="3">
+        <f>4.5*F123/($B$60*$I123)</f>
+        <v>9.0000000000000052E-2</v>
+      </c>
+      <c r="K123" s="3">
+        <f>4.5*G123/($B$60*$I123)</f>
+        <v>5.7446808510638304E-2</v>
+      </c>
+      <c r="L123" s="3">
+        <f>4.5*H123/($B$60*$I123)</f>
+        <v>2.4893617021276619E-2</v>
+      </c>
+      <c r="M123" s="3">
+        <f>(C123/(1-F123))+J123/2</f>
+        <v>0.96003267973856221</v>
+      </c>
+      <c r="N123" s="3">
+        <f>(D123/(1-G123))+K123/2</f>
+        <v>0.96989987484355455</v>
+      </c>
+      <c r="O123" s="3">
+        <f>(E123/(1-H123))+L123/2</f>
+        <v>0.97501365343042445</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="102"/>
+        <v>6</v>
+      </c>
+      <c r="C124" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E124" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F124" s="1">
+        <f t="shared" si="104"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="G124" s="1">
+        <f t="shared" si="105"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="H124" s="1">
+        <f t="shared" si="106"/>
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="I124" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J124" s="3">
+        <f>4.5*F124/($B$60*$I124)</f>
+        <v>0.13882978723404257</v>
+      </c>
+      <c r="K124" s="3">
+        <f>4.5*G124/($B$60*$I124)</f>
+        <v>0.11170212765957445</v>
+      </c>
+      <c r="L124" s="3">
+        <f>4.5*H124/($B$60*$I124)</f>
+        <v>8.457446808510638E-2</v>
+      </c>
+      <c r="M124" s="3">
+        <f>(C124/(1-F124))+J124/2</f>
+        <v>0.93215999165623709</v>
+      </c>
+      <c r="N124" s="3">
+        <f>(D124/(1-G124))+K124/2</f>
+        <v>0.97349812265331659</v>
+      </c>
+      <c r="O124" s="3">
+        <f>(E124/(1-H124))+L124/2</f>
+        <v>0.94068295596768681</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="102"/>
+        <v>8</v>
+      </c>
+      <c r="C125" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F125" s="1">
+        <f t="shared" si="104"/>
+        <v>0.52187500000000009</v>
+      </c>
+      <c r="G125" s="1">
+        <f t="shared" si="105"/>
+        <v>0.46875</v>
+      </c>
+      <c r="H125" s="1">
+        <f t="shared" si="106"/>
+        <v>0.41562500000000002</v>
+      </c>
+      <c r="I125" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J125" s="3">
+        <f>4.5*F125/($B$60*$I125)</f>
+        <v>0.19986702127659575</v>
+      </c>
+      <c r="K125" s="3">
+        <f>4.5*G125/($B$60*$I125)</f>
+        <v>0.17952127659574468</v>
+      </c>
+      <c r="L125" s="3">
+        <f>4.5*H125/($B$60*$I125)</f>
+        <v>0.15917553191489361</v>
+      </c>
+      <c r="M125" s="3">
+        <f>(C125/(1-F125))+J125/2</f>
+        <v>0.93653481782784065</v>
+      </c>
+      <c r="N125" s="3">
+        <f>(D125/(1-G125))+K125/2</f>
+        <v>0.93681946182728404</v>
+      </c>
+      <c r="O125" s="3">
+        <f>(E125/(1-H125))+L125/2</f>
+        <v>0.93520273921947883</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>10</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="102"/>
+        <v>10</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F126" s="1">
+        <f t="shared" si="104"/>
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="G126" s="1">
+        <f t="shared" si="105"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="H126" s="1">
+        <f t="shared" si="106"/>
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="I126" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J126" s="3">
+        <f>4.5*F126/($B$60*$I126)</f>
+        <v>0.23648936170212767</v>
+      </c>
+      <c r="K126" s="3">
+        <f>4.5*G126/($B$60*$I126)</f>
+        <v>0.22021276595744679</v>
+      </c>
+      <c r="L126" s="3">
+        <f>4.5*H126/($B$60*$I126)</f>
+        <v>0.20393617021276594</v>
+      </c>
+      <c r="M126" s="3">
+        <f>(C126/(1-F126))+J126/2</f>
+        <v>0.90255840634126006</v>
+      </c>
+      <c r="N126" s="3">
+        <f>(D126/(1-G126))+K126/2</f>
+        <v>0.93363579474342917</v>
+      </c>
+      <c r="O126" s="3">
+        <f>(E126/(1-H126))+L126/2</f>
+        <v>0.95758305836841506</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>12</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="102"/>
+        <v>12</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F127" s="1">
+        <f t="shared" si="104"/>
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="G127" s="1">
+        <f t="shared" si="105"/>
+        <v>0.64583333333333326</v>
+      </c>
+      <c r="H127" s="1">
+        <f t="shared" si="106"/>
+        <v>0.61041666666666661</v>
+      </c>
+      <c r="I127" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J127" s="3">
+        <f>4.5*F127/($B$60*$I127)</f>
+        <v>0.26090425531914896</v>
+      </c>
+      <c r="K127" s="3">
+        <f>4.5*G127/($B$60*$I127)</f>
+        <v>0.24734042553191485</v>
+      </c>
+      <c r="L127" s="3">
+        <f>4.5*H127/($B$60*$I127)</f>
+        <v>0.23377659574468082</v>
+      </c>
+      <c r="M127" s="3">
+        <f>(C127/(1-F127))+J127/2</f>
+        <v>0.91476585314977066</v>
+      </c>
+      <c r="N127" s="3">
+        <f>(D127/(1-G127))+K127/2</f>
+        <v>0.970729036295369</v>
+      </c>
+      <c r="O127" s="3">
+        <f>(E127/(1-H127))+L127/2</f>
+        <v>0.88694177380816919</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>15</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="102"/>
+        <v>15</v>
+      </c>
+      <c r="C128" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E128" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F128" s="1">
+        <f t="shared" si="104"/>
+        <v>0.745</v>
+      </c>
+      <c r="G128" s="1">
+        <f t="shared" si="105"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="H128" s="1">
+        <f t="shared" si="106"/>
+        <v>0.68833333333333335</v>
+      </c>
+      <c r="I128" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J128" s="3">
+        <f>4.5*F128/($B$60*$I128)</f>
+        <v>0.28531914893617022</v>
+      </c>
+      <c r="K128" s="3">
+        <f>4.5*G128/($B$60*$I128)</f>
+        <v>0.27446808510638299</v>
+      </c>
+      <c r="L128" s="3">
+        <f>4.5*H128/($B$60*$I128)</f>
+        <v>0.26361702127659575</v>
+      </c>
+      <c r="M128" s="3">
+        <f>(C128/(1-F128))+J128/2</f>
+        <v>0.92697329995828115</v>
+      </c>
+      <c r="N128" s="3">
+        <f>(D128/(1-G128))+K128/2</f>
+        <v>0.84311639549436801</v>
+      </c>
+      <c r="O128" s="3">
+        <f>(E128/(1-H128))+L128/2</f>
+        <v>0.93394754807145308</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>20</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="102"/>
+        <v>20</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="E129" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F129" s="1">
+        <f t="shared" si="104"/>
+        <v>0.80875000000000008</v>
+      </c>
+      <c r="G129" s="1">
+        <f t="shared" si="105"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H129" s="1">
+        <f t="shared" si="106"/>
+        <v>0.76624999999999999</v>
+      </c>
+      <c r="I129" s="4">
+        <v>4.6999999999999999E-6</v>
+      </c>
+      <c r="J129" s="3">
+        <f>4.5*F129/($B$60*$I129)</f>
+        <v>0.30973404255319154</v>
+      </c>
+      <c r="K129" s="3">
+        <f>4.5*G129/($B$60*$I129)</f>
+        <v>0.30159574468085104</v>
+      </c>
+      <c r="L129" s="3">
+        <f>4.5*H129/($B$60*$I129)</f>
+        <v>0.29345744680851066</v>
+      </c>
+      <c r="M129" s="3">
+        <f>(C129/(1-F129))+J129/2</f>
+        <v>0.9391807467667922</v>
+      </c>
+      <c r="N129" s="3">
+        <f>(D129/(1-G129))+K129/2</f>
+        <v>0.85668022528160193</v>
+      </c>
+      <c r="O129" s="3">
+        <f>(E129/(1-H129))+L129/2</f>
+        <v>0.78843995335077932</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L130" t="s">
+        <v>52</v>
+      </c>
+      <c r="M130" s="3">
+        <f>MAX(M112:O129)</f>
+        <v>0.99969848674479456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
